--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.001930089107001879</v>
+        <v>0.005937042158040004</v>
       </c>
       <c r="C2">
-        <v>0.0002893</v>
+        <v>0.0008899</v>
       </c>
       <c r="D2">
-        <v>0.0001062475101073384</v>
+        <v>0.0003268221888853109</v>
       </c>
       <c r="E2">
-        <v>2.315630987067647E-05</v>
+        <v>7.122986572386791E-05</v>
       </c>
       <c r="F2">
-        <v>0.0002876578921088668</v>
+        <v>0.0008848488012017993</v>
       </c>
       <c r="G2">
-        <v>0.000139694255208354</v>
+        <v>0.0004297059029032637</v>
       </c>
       <c r="H2">
-        <v>1.091143860209898E-05</v>
+        <v>3.356408300037292E-05</v>
       </c>
       <c r="I2">
-        <v>0.002787056512899214</v>
+        <v>0.008573112999754618</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.002010611155713716</v>
+        <v>0.006184731653887436</v>
       </c>
       <c r="C3">
-        <v>0.00035505</v>
+        <v>0.00109215</v>
       </c>
       <c r="D3">
-        <v>0.0001020535294452067</v>
+        <v>0.000313921313008259</v>
       </c>
       <c r="E3">
-        <v>2.596313530954633E-05</v>
+        <v>7.986378884191249E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002680185982701087</v>
+        <v>0.000824437437264327</v>
       </c>
       <c r="G3">
-        <v>0.0001238798112225026</v>
+        <v>0.0003810599516311961</v>
       </c>
       <c r="H3">
-        <v>8.393414309306913E-06</v>
+        <v>2.581852538490225E-05</v>
       </c>
       <c r="I3">
-        <v>0.002893969644270388</v>
+        <v>0.008901982670018032</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.002128954166699291</v>
+        <v>0.006548760155360183</v>
       </c>
       <c r="C4">
-        <v>0.0003419</v>
+        <v>0.0010517</v>
       </c>
       <c r="D4">
-        <v>0.0001034515229992505</v>
+        <v>0.0003182216049672765</v>
       </c>
       <c r="E4">
-        <v>2.385801623039393E-05</v>
+        <v>7.338834650337906E-05</v>
       </c>
       <c r="F4">
-        <v>0.000263397587955107</v>
+        <v>0.0008102229986908043</v>
       </c>
       <c r="G4">
-        <v>0.0001177297496724492</v>
+        <v>0.0003621420816920588</v>
       </c>
       <c r="H4">
-        <v>1.426880432582175E-05</v>
+        <v>4.38914931543338E-05</v>
       </c>
       <c r="I4">
-        <v>0.002993559847882314</v>
+        <v>0.009208326680368036</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.002108213639000789</v>
+        <v>0.006484961345823722</v>
       </c>
       <c r="C5">
-        <v>0.000309025</v>
+        <v>0.0009505749999999999</v>
       </c>
       <c r="D5">
-        <v>8.667560035072343E-05</v>
+        <v>0.0002666181014590694</v>
       </c>
       <c r="E5">
-        <v>2.596313530954633E-05</v>
+        <v>7.986378884191249E-05</v>
       </c>
       <c r="F5">
-        <v>0.0003003656704751219</v>
+        <v>0.0009239385072789874</v>
       </c>
       <c r="G5">
-        <v>8.082938037212931E-05</v>
+        <v>0.0002486348620572345</v>
       </c>
       <c r="H5">
-        <v>1.091143860209898E-05</v>
+        <v>3.356408300037292E-05</v>
       </c>
       <c r="I5">
-        <v>0.002921983864110409</v>
+        <v>0.008988155688461298</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.002258277457054664</v>
+        <v>0.00694656449717576</v>
       </c>
       <c r="C6">
-        <v>0.00030245</v>
+        <v>0.00093035</v>
       </c>
       <c r="D6">
-        <v>0.0001202274456477776</v>
+        <v>0.0003698251084754833</v>
       </c>
       <c r="E6">
-        <v>2.66648416692638E-05</v>
+        <v>8.202226962142364E-05</v>
       </c>
       <c r="F6">
-        <v>0.0002772606189001127</v>
+        <v>0.0008528663144113727</v>
       </c>
       <c r="G6">
-        <v>9.752240457941694E-05</v>
+        <v>0.0002999833661777503</v>
       </c>
       <c r="H6">
-        <v>1.091143860209898E-05</v>
+        <v>3.356408300037292E-05</v>
       </c>
       <c r="I6">
-        <v>0.003093314206453334</v>
+        <v>0.009515175638862164</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.002365640188670446</v>
+        <v>0.007276817158305669</v>
       </c>
       <c r="C7">
-        <v>0.0003156</v>
+        <v>0.0009708000000000001</v>
       </c>
       <c r="D7">
-        <v>0.0001146354714316019</v>
+        <v>0.0003526239406394143</v>
       </c>
       <c r="E7">
-        <v>2.526142894982887E-05</v>
+        <v>7.770530806240134E-05</v>
       </c>
       <c r="F7">
-        <v>0.0002691738508488593</v>
+        <v>0.000827991046907708</v>
       </c>
       <c r="G7">
-        <v>8.346512103643786E-05</v>
+        <v>0.000256742520602579</v>
       </c>
       <c r="H7">
-        <v>1.259012146396037E-05</v>
+        <v>3.872778807735337E-05</v>
       </c>
       <c r="I7">
-        <v>0.003186366182401134</v>
+        <v>0.009801407762595127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.002688948414558877</v>
+        <v>0.008271328012844609</v>
       </c>
       <c r="C8">
-        <v>0.0002367</v>
+        <v>0.0007281</v>
       </c>
       <c r="D8">
-        <v>0.0001230234327558655</v>
+        <v>0.0003784256923935177</v>
       </c>
       <c r="E8">
-        <v>3.719043706502583E-05</v>
+        <v>0.0001143994813140909</v>
       </c>
       <c r="F8">
-        <v>0.0002576213250613545</v>
+        <v>0.0007924549504739002</v>
       </c>
       <c r="G8">
-        <v>4.920049240042656E-05</v>
+        <v>0.0001513429595130992</v>
       </c>
       <c r="H8">
-        <v>1.594748718768313E-05</v>
+        <v>4.905519823131427E-05</v>
       </c>
       <c r="I8">
-        <v>0.003408631589029233</v>
+        <v>0.01048510629477053</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.002939054777982003</v>
+        <v>0.009040666598431337</v>
       </c>
       <c r="C9">
-        <v>0.000190675</v>
+        <v>0.0005865250000000001</v>
       </c>
       <c r="D9">
-        <v>0.0001062475101073384</v>
+        <v>0.0003268221888853109</v>
       </c>
       <c r="E9">
-        <v>5.262797697881015E-05</v>
+        <v>0.0001618860584633361</v>
       </c>
       <c r="F9">
-        <v>0.000187150917757576</v>
+        <v>0.0005756847622276767</v>
       </c>
       <c r="G9">
-        <v>3.777894952175611E-05</v>
+        <v>0.0001162097724832726</v>
       </c>
       <c r="H9">
-        <v>5.036048585584146E-06</v>
+        <v>1.549111523094134E-05</v>
       </c>
       <c r="I9">
-        <v>0.003518571180933068</v>
+        <v>0.01082328549572187</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.002985415957543363</v>
+        <v>0.009183275702101068</v>
       </c>
       <c r="C10">
-        <v>0.00022355</v>
+        <v>0.0006876500000000002</v>
       </c>
       <c r="D10">
-        <v>8.387961324263555E-05</v>
+        <v>0.0002580175175410349</v>
       </c>
       <c r="E10">
-        <v>5.613650877739747E-05</v>
+        <v>0.0001726784623608919</v>
       </c>
       <c r="F10">
-        <v>0.0001005069743512908</v>
+        <v>0.0003091640389741227</v>
       </c>
       <c r="G10">
-        <v>2.020734509303233E-05</v>
+        <v>6.215871551430862E-05</v>
       </c>
       <c r="H10">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I10">
-        <v>0.003472214423300511</v>
+        <v>0.0106806899941069</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.001927649044919703</v>
+        <v>0.005929536415741597</v>
       </c>
       <c r="C11">
-        <v>0.000348475</v>
+        <v>0.001071925</v>
       </c>
       <c r="D11">
-        <v>5.032776794558134E-05</v>
+        <v>0.0001548105105246208</v>
       </c>
       <c r="E11">
-        <v>4.631261974135294E-05</v>
+        <v>0.0001424597314477358</v>
       </c>
       <c r="F11">
-        <v>4.621010315001876E-05</v>
+        <v>0.0001421443857352288</v>
       </c>
       <c r="G11">
-        <v>1.493586376441521E-05</v>
+        <v>4.59433984236194E-05</v>
       </c>
       <c r="H11">
-        <v>3.357365723722764E-06</v>
+        <v>1.03274101539609E-05</v>
       </c>
       <c r="I11">
-        <v>0.002437267765244794</v>
+        <v>0.007497146852026764</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.00166046224692134</v>
+        <v>0.005107657634066019</v>
       </c>
       <c r="C12">
-        <v>0.0003879249999999999</v>
+        <v>0.001193275</v>
       </c>
       <c r="D12">
-        <v>4.193980662131777E-05</v>
+        <v>0.0001290087587705175</v>
       </c>
       <c r="E12">
-        <v>3.999726250389572E-05</v>
+        <v>0.0001230334044321355</v>
       </c>
       <c r="F12">
-        <v>5.545212378002251E-05</v>
+        <v>0.0001705732628822745</v>
       </c>
       <c r="G12">
-        <v>1.317870332154283E-05</v>
+        <v>4.053829272672302E-05</v>
       </c>
       <c r="H12">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I12">
-        <v>0.002201473167440911</v>
+        <v>0.006771831910493139</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.001263952158567603</v>
+        <v>0.003887974510574869</v>
       </c>
       <c r="C13">
-        <v>0.000216975</v>
+        <v>0.0006674250000000001</v>
       </c>
       <c r="D13">
-        <v>3.634783240514208E-05</v>
+        <v>0.0001118075909344484</v>
       </c>
       <c r="E13">
-        <v>3.227849254700355E-05</v>
+        <v>9.929011585751285E-05</v>
       </c>
       <c r="F13">
-        <v>3.81233350987655E-05</v>
+        <v>0.0001172691182315638</v>
       </c>
       <c r="G13">
-        <v>9.664382435798075E-06</v>
+        <v>2.97280813329302E-05</v>
       </c>
       <c r="I13">
-        <v>0.001597341201054312</v>
+        <v>0.004913494416931325</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.0009235634981039339</v>
+        <v>0.002840923459947083</v>
       </c>
       <c r="C14">
-        <v>0.000230125</v>
+        <v>0.0007078750000000002</v>
       </c>
       <c r="D14">
-        <v>2.935786463492245E-05</v>
+        <v>9.03061311393622E-05</v>
       </c>
       <c r="E14">
-        <v>1.613924627350178E-05</v>
+        <v>4.964505792875643E-05</v>
       </c>
       <c r="F14">
-        <v>3.81233350987655E-05</v>
+        <v>0.0001172691182315638</v>
       </c>
       <c r="G14">
-        <v>1.054296265723426E-05</v>
+        <v>3.243063418137839E-05</v>
       </c>
       <c r="H14">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I14">
-        <v>0.001248691248199289</v>
+        <v>0.003841031253966634</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.0005782947134759108</v>
+        <v>0.001778860924722479</v>
       </c>
       <c r="C15">
-        <v>5.917500000000001E-05</v>
+        <v>0.000182025</v>
       </c>
       <c r="D15">
-        <v>1.258194198639534E-05</v>
+        <v>3.870262763115521E-05</v>
       </c>
       <c r="E15">
-        <v>1.473583355406684E-05</v>
+        <v>4.532809636973412E-05</v>
       </c>
       <c r="F15">
-        <v>2.079454641750844E-05</v>
+        <v>6.396497358085297E-05</v>
       </c>
       <c r="G15">
-        <v>1.493586376441521E-05</v>
+        <v>4.59433984236194E-05</v>
       </c>
       <c r="H15">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I15">
-        <v>0.0007013572406292273</v>
+        <v>0.002157406873266331</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.0004062703366824439</v>
+        <v>0.001249706092684779</v>
       </c>
       <c r="C16">
-        <v>0.000138075</v>
+        <v>0.000424725</v>
       </c>
       <c r="D16">
-        <v>8.387961324263557E-06</v>
+        <v>2.580175175410349E-05</v>
       </c>
       <c r="E16">
-        <v>7.017063597174684E-06</v>
+        <v>2.158480779511149E-05</v>
       </c>
       <c r="F16">
-        <v>4.274434541376735E-05</v>
+        <v>0.0001314835568050866</v>
       </c>
       <c r="G16">
-        <v>9.664382435798075E-06</v>
+        <v>2.97280813329302E-05</v>
       </c>
       <c r="H16">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I16">
-        <v>0.000613837772315309</v>
+        <v>0.001888192995448991</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.0002623066738340103</v>
+        <v>0.0008068672970787614</v>
       </c>
       <c r="C17">
-        <v>0.000203825</v>
+        <v>0.0006269750000000001</v>
       </c>
       <c r="D17">
-        <v>2.795987108087853E-06</v>
+        <v>8.600583918034499E-06</v>
       </c>
       <c r="F17">
-        <v>3.119181962626265E-05</v>
+        <v>9.594746037127944E-05</v>
       </c>
       <c r="G17">
-        <v>1.581444398585139E-05</v>
+        <v>4.864595127206757E-05</v>
       </c>
       <c r="I17">
-        <v>0.0005159339245542122</v>
+        <v>0.001587036292640143</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.0001695843147112904</v>
+        <v>0.0005216490897392924</v>
       </c>
       <c r="C18">
-        <v>0.000138075</v>
+        <v>0.000424725</v>
       </c>
       <c r="D18">
-        <v>9.785954878307486E-06</v>
+        <v>3.010204371312074E-05</v>
       </c>
       <c r="F18">
-        <v>2.079454641750844E-05</v>
+        <v>6.396497358085297E-05</v>
       </c>
       <c r="G18">
-        <v>2.020734509303233E-05</v>
+        <v>6.215871551430862E-05</v>
       </c>
       <c r="I18">
-        <v>0.0003584471611001387</v>
+        <v>0.001102599822547575</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.0001903248424097935</v>
+        <v>0.0005854478992757525</v>
       </c>
       <c r="C19">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D19">
-        <v>8.387961324263557E-06</v>
+        <v>2.580175175410349E-05</v>
       </c>
       <c r="E19">
-        <v>5.613650877739748E-06</v>
+        <v>1.726784623608918E-05</v>
       </c>
       <c r="F19">
-        <v>2.657080931126078E-05</v>
+        <v>8.173302179775656E-05</v>
       </c>
       <c r="G19">
-        <v>1.932876487159615E-05</v>
+        <v>5.94561626658604E-05</v>
       </c>
       <c r="I19">
-        <v>0.0003685760287946537</v>
+        <v>0.001133756681729562</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.0003403886604636691</v>
+        <v>0.001047051050627788</v>
       </c>
       <c r="C20">
-        <v>7.890000000000001E-05</v>
+        <v>0.0002427</v>
       </c>
       <c r="D20">
-        <v>1.957190975661497E-05</v>
+        <v>6.020408742624147E-05</v>
       </c>
       <c r="E20">
-        <v>2.806825438869874E-06</v>
+        <v>8.63392311804459E-06</v>
       </c>
       <c r="F20">
-        <v>5.314161862252156E-05</v>
+        <v>0.0001634660435955131</v>
       </c>
       <c r="G20">
-        <v>2.460024620021328E-05</v>
+        <v>7.567147975654958E-05</v>
       </c>
       <c r="I20">
-        <v>0.0005194092604818887</v>
+        <v>0.001597726584524137</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.0008186408285703297</v>
+        <v>0.002518176541115576</v>
       </c>
       <c r="C21">
-        <v>5.917500000000001E-05</v>
+        <v>0.000182025</v>
       </c>
       <c r="D21">
-        <v>4.193980662131777E-05</v>
+        <v>0.0001290087587705175</v>
       </c>
       <c r="E21">
-        <v>2.596313530954633E-05</v>
+        <v>7.986378884191249E-05</v>
       </c>
       <c r="F21">
-        <v>9.473071145753844E-05</v>
+        <v>0.0002913959907572192</v>
       </c>
       <c r="G21">
-        <v>3.602178907888374E-05</v>
+        <v>0.0001108046667863762</v>
       </c>
       <c r="H21">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I21">
-        <v>0.001078989295330408</v>
+        <v>0.003319020303887072</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.001555539577387736</v>
+        <v>0.004784910715234516</v>
       </c>
       <c r="C22">
-        <v>8.5475E-05</v>
+        <v>0.0002629250000000001</v>
       </c>
       <c r="D22">
-        <v>8.947158745881129E-05</v>
+        <v>0.000275218685377104</v>
       </c>
       <c r="E22">
-        <v>6.946892961202938E-05</v>
+        <v>0.0002136895971716037</v>
       </c>
       <c r="F22">
-        <v>0.0001628906136038161</v>
+        <v>0.0005010589597166817</v>
       </c>
       <c r="G22">
-        <v>6.325777594340557E-05</v>
+        <v>0.0001945838050882703</v>
       </c>
       <c r="H22">
-        <v>8.393414309306913E-06</v>
+        <v>2.581852538490225E-05</v>
       </c>
       <c r="I22">
-        <v>0.002034496898315105</v>
+        <v>0.006258205287973078</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.002503503696313436</v>
+        <v>0.00770089159816567</v>
       </c>
       <c r="C23">
-        <v>9.205000000000001E-05</v>
+        <v>0.00028315</v>
       </c>
       <c r="D23">
-        <v>6.989967770219634E-05</v>
+        <v>0.0002150145979508625</v>
       </c>
       <c r="E23">
-        <v>6.876722325231193E-05</v>
+        <v>0.0002115311163920925</v>
       </c>
       <c r="F23">
-        <v>0.0001894614229150769</v>
+        <v>0.0005827919815144383</v>
       </c>
       <c r="G23">
-        <v>7.995080015069315E-05</v>
+        <v>0.0002459323092087863</v>
       </c>
       <c r="H23">
-        <v>7.554072878376219E-06</v>
+        <v>2.323667284641202E-05</v>
       </c>
       <c r="I23">
-        <v>0.003011186893212091</v>
+        <v>0.009262548276078262</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.00307325819250173</v>
+        <v>0.009453482424843722</v>
       </c>
       <c r="C24">
-        <v>0.000190675</v>
+        <v>0.0005865250000000001</v>
       </c>
       <c r="D24">
-        <v>0.0001020535294452067</v>
+        <v>0.000313921313008259</v>
       </c>
       <c r="E24">
-        <v>4.210238158304811E-05</v>
+        <v>0.0001295088467706689</v>
       </c>
       <c r="F24">
-        <v>0.0002322057683288442</v>
+        <v>0.0007142755383195246</v>
       </c>
       <c r="G24">
-        <v>9.752240457941694E-05</v>
+        <v>0.0002999833661777503</v>
       </c>
       <c r="H24">
-        <v>1.678682861861383E-05</v>
+        <v>5.16370507698045E-05</v>
       </c>
       <c r="I24">
-        <v>0.00375460410505686</v>
+        <v>0.01154933353988973</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.002235096867273985</v>
+        <v>0.006875259945340888</v>
       </c>
       <c r="C25">
-        <v>0.000335325</v>
+        <v>0.001031475</v>
       </c>
       <c r="D25">
-        <v>0.0001425953425124805</v>
+        <v>0.0004386297798197591</v>
       </c>
       <c r="E25">
-        <v>4.210238158304811E-05</v>
+        <v>0.0001295088467706689</v>
       </c>
       <c r="F25">
-        <v>0.0002610870827976059</v>
+        <v>0.0008031157794040429</v>
       </c>
       <c r="G25">
-        <v>0.000130029872772556</v>
+        <v>0.0003999778215703337</v>
       </c>
       <c r="H25">
-        <v>2.350156006605935E-05</v>
+        <v>7.229187107772627E-05</v>
       </c>
       <c r="I25">
-        <v>0.003169738107005735</v>
+        <v>0.009750259043983418</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.00189104811368705</v>
+        <v>0.00581695028126549</v>
       </c>
       <c r="C26">
-        <v>0.00022355</v>
+        <v>0.0006876500000000002</v>
       </c>
       <c r="D26">
-        <v>0.0001523812973907879</v>
+        <v>0.0004687318235328804</v>
       </c>
       <c r="E26">
-        <v>2.245460351095899E-05</v>
+        <v>6.907138494435672E-05</v>
       </c>
       <c r="F26">
-        <v>0.0002807263766363639</v>
+        <v>0.000863527143341515</v>
       </c>
       <c r="G26">
-        <v>0.0001519943783084605</v>
+        <v>0.0004675416427815386</v>
       </c>
       <c r="H26">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I26">
-        <v>0.002733905549566651</v>
+        <v>0.008409618211404644</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.001970350131357798</v>
+        <v>0.006060886905963722</v>
       </c>
       <c r="C27">
-        <v>0.0002761500000000001</v>
+        <v>0.0008494500000000001</v>
       </c>
       <c r="D27">
-        <v>0.0001467893231746122</v>
+        <v>0.000451530655696811</v>
       </c>
       <c r="E27">
-        <v>2.526142894982887E-05</v>
+        <v>7.770530806240134E-05</v>
       </c>
       <c r="F27">
-        <v>0.0002610870827976059</v>
+        <v>0.0008031157794040429</v>
       </c>
       <c r="G27">
-        <v>0.000135301354101173</v>
+        <v>0.0004161931386610229</v>
       </c>
       <c r="H27">
-        <v>9.232755740237603E-06</v>
+        <v>2.840037792339247E-05</v>
       </c>
       <c r="I27">
-        <v>0.002824172076121256</v>
+        <v>0.008687282165711392</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.002086253080261198</v>
+        <v>0.006417409665138056</v>
       </c>
       <c r="C28">
-        <v>0.000263</v>
+        <v>0.0008090000000000003</v>
       </c>
       <c r="D28">
-        <v>0.0001495853102827</v>
+        <v>0.0004601312396148456</v>
       </c>
       <c r="E28">
-        <v>2.315630987067647E-05</v>
+        <v>7.122986572386791E-05</v>
       </c>
       <c r="F28">
-        <v>0.0002564660724826041</v>
+        <v>0.0007889013408305199</v>
       </c>
       <c r="G28">
-        <v>0.0001282727123296835</v>
+        <v>0.0003945727158734371</v>
       </c>
       <c r="H28">
-        <v>1.594748718768313E-05</v>
+        <v>4.905519823131427E-05</v>
       </c>
       <c r="I28">
-        <v>0.002922680972414546</v>
+        <v>0.00899030002541204</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.002065512552562694</v>
+        <v>0.006353610855601597</v>
       </c>
       <c r="C29">
-        <v>0.0002367</v>
+        <v>0.0007281</v>
       </c>
       <c r="D29">
-        <v>0.0001244214263099095</v>
+        <v>0.0003827259843525352</v>
       </c>
       <c r="E29">
-        <v>2.526142894982887E-05</v>
+        <v>7.770530806240134E-05</v>
       </c>
       <c r="F29">
-        <v>0.0002922789024238686</v>
+        <v>0.0008990632397753225</v>
       </c>
       <c r="G29">
-        <v>8.785802214361882E-05</v>
+        <v>0.0002702552848448199</v>
       </c>
       <c r="H29">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I29">
-        <v>0.002843783112422949</v>
+        <v>0.008747606608175539</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.002213136308534393</v>
+        <v>0.006807708264655222</v>
       </c>
       <c r="C30">
-        <v>0.000230125</v>
+        <v>0.0007078750000000002</v>
       </c>
       <c r="D30">
-        <v>0.0001733512007014469</v>
+        <v>0.0005332362029181388</v>
       </c>
       <c r="E30">
-        <v>2.596313530954633E-05</v>
+        <v>7.986378884191249E-05</v>
       </c>
       <c r="F30">
-        <v>0.0002703291034276098</v>
+        <v>0.0008315446565510885</v>
       </c>
       <c r="G30">
-        <v>0.0001063082067937788</v>
+        <v>0.0003270088946622321</v>
       </c>
       <c r="H30">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I30">
-        <v>0.003030963734799805</v>
+        <v>0.009323382743167456</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.002318058978067998</v>
+        <v>0.007130455183486728</v>
       </c>
       <c r="C31">
-        <v>0.000243275</v>
+        <v>0.0007483250000000001</v>
       </c>
       <c r="D31">
-        <v>0.0001649632393771832</v>
+        <v>0.000507434451164035</v>
       </c>
       <c r="E31">
-        <v>2.455972259011139E-05</v>
+        <v>7.554682728289021E-05</v>
       </c>
       <c r="F31">
-        <v>0.0002622423353763564</v>
+        <v>0.0008066693890474237</v>
       </c>
       <c r="G31">
-        <v>9.137234302936364E-05</v>
+        <v>0.0002810654962386127</v>
       </c>
       <c r="H31">
-        <v>1.342946289489106E-05</v>
+        <v>4.130964061584358E-05</v>
       </c>
       <c r="I31">
-        <v>0.003117901081335904</v>
+        <v>0.009590805987835533</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.002635267048750988</v>
+        <v>0.008106201682279652</v>
       </c>
       <c r="C32">
-        <v>0.0001841</v>
+        <v>0.0005663</v>
       </c>
       <c r="D32">
-        <v>0.0001775451813635786</v>
+        <v>0.0005461370787951903</v>
       </c>
       <c r="E32">
-        <v>3.57870243455909E-05</v>
+        <v>0.0001100825197550686</v>
       </c>
       <c r="F32">
-        <v>0.0002506898095888518</v>
+        <v>0.0007711332926136162</v>
       </c>
       <c r="G32">
-        <v>5.35933935076075E-05</v>
+        <v>0.0001648557237553401</v>
       </c>
       <c r="H32">
-        <v>1.762617004954451E-05</v>
+        <v>5.42189033082947E-05</v>
       </c>
       <c r="I32">
-        <v>0.003354608627606161</v>
+        <v>0.01031892920050716</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.002880493288009758</v>
+        <v>0.008860528783269563</v>
       </c>
       <c r="C33">
-        <v>0.00014465</v>
+        <v>0.00044495</v>
       </c>
       <c r="D33">
-        <v>0.0001523812973907879</v>
+        <v>0.0004687318235328804</v>
       </c>
       <c r="E33">
-        <v>5.12245642593752E-05</v>
+        <v>0.0001575690969043138</v>
       </c>
       <c r="F33">
-        <v>0.000182529907442574</v>
+        <v>0.0005614703236541539</v>
       </c>
       <c r="G33">
-        <v>4.129327040750087E-05</v>
+        <v>0.0001270199838770653</v>
       </c>
       <c r="H33">
-        <v>5.875390016514838E-06</v>
+        <v>1.807296776943157E-05</v>
       </c>
       <c r="I33">
-        <v>0.003458447717526511</v>
+        <v>0.01063834297900741</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.002925634436530031</v>
+        <v>0.008999385015790094</v>
       </c>
       <c r="C34">
-        <v>0.00017095</v>
+        <v>0.0005258500000000001</v>
       </c>
       <c r="D34">
-        <v>0.0001202274456477776</v>
+        <v>0.0003698251084754833</v>
       </c>
       <c r="E34">
-        <v>5.473309605796255E-05</v>
+        <v>0.0001683615008018696</v>
       </c>
       <c r="F34">
-        <v>9.819646919378991E-05</v>
+        <v>0.0003020568196873612</v>
       </c>
       <c r="G34">
-        <v>2.19645055359047E-05</v>
+        <v>6.756382121120497E-05</v>
       </c>
       <c r="H34">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I34">
-        <v>0.003394223977258257</v>
+        <v>0.01044078782358148</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.001888608051604874</v>
+        <v>0.005809444538967081</v>
       </c>
       <c r="C35">
-        <v>0.000269575</v>
+        <v>0.0008292250000000001</v>
       </c>
       <c r="D35">
-        <v>7.269566481028416E-05</v>
+        <v>0.0002236151818688969</v>
       </c>
       <c r="E35">
-        <v>4.490920702191799E-05</v>
+        <v>0.0001381427698887134</v>
       </c>
       <c r="F35">
-        <v>4.505485057126829E-05</v>
+        <v>0.0001385907760918481</v>
       </c>
       <c r="G35">
-        <v>1.669302420728759E-05</v>
+        <v>5.134850412051578E-05</v>
       </c>
       <c r="H35">
-        <v>3.357365723722764E-06</v>
+        <v>1.03274101539609E-05</v>
       </c>
       <c r="I35">
-        <v>0.002340893163939355</v>
+        <v>0.007200694181091017</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.001627521408811952</v>
+        <v>0.005006330113037525</v>
       </c>
       <c r="C36">
-        <v>0.000295875</v>
+        <v>0.0009101249999999999</v>
       </c>
       <c r="D36">
-        <v>6.011372282388882E-05</v>
+        <v>0.0001849125542377417</v>
       </c>
       <c r="E36">
-        <v>3.859384978446077E-05</v>
+        <v>0.0001187164428731132</v>
       </c>
       <c r="F36">
-        <v>5.429687120127202E-05</v>
+        <v>0.0001670196532388939</v>
       </c>
       <c r="G36">
-        <v>1.405728354297902E-05</v>
+        <v>4.324084557517119E-05</v>
       </c>
       <c r="H36">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I36">
-        <v>0.002092976160457344</v>
+        <v>0.006438090166577914</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.001238331506704746</v>
+        <v>0.003809164216441593</v>
       </c>
       <c r="C37">
-        <v>0.0001643750000000001</v>
+        <v>0.0005056250000000002</v>
       </c>
       <c r="D37">
-        <v>5.172576149962527E-05</v>
+        <v>0.0001591108024836382</v>
       </c>
       <c r="E37">
-        <v>3.157678618728608E-05</v>
+        <v>9.713163507800168E-05</v>
       </c>
       <c r="F37">
-        <v>3.696808252001498E-05</v>
+        <v>0.0001137155085881831</v>
       </c>
       <c r="G37">
-        <v>1.054296265723426E-05</v>
+        <v>3.243063418137839E-05</v>
       </c>
       <c r="I37">
-        <v>0.001533520099568907</v>
+        <v>0.004717177796772795</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.0009052630324876068</v>
+        <v>0.002784630392709027</v>
       </c>
       <c r="C38">
-        <v>0.000177525</v>
+        <v>0.0005460750000000001</v>
       </c>
       <c r="D38">
-        <v>4.193980662131777E-05</v>
+        <v>0.0001290087587705175</v>
       </c>
       <c r="E38">
-        <v>1.543753991378431E-05</v>
+        <v>4.748657714924527E-05</v>
       </c>
       <c r="F38">
-        <v>3.696808252001498E-05</v>
+        <v>0.0001137155085881831</v>
       </c>
       <c r="G38">
-        <v>1.142154287867046E-05</v>
+        <v>3.513318702982659E-05</v>
       </c>
       <c r="H38">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I38">
-        <v>0.001189394345852325</v>
+        <v>0.00365863127678529</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.0005660944030650268</v>
+        <v>0.001741332213230444</v>
       </c>
       <c r="C39">
-        <v>4.602500000000001E-05</v>
+        <v>0.000141575</v>
       </c>
       <c r="D39">
-        <v>1.817391620257104E-05</v>
+        <v>5.590379546722422E-05</v>
       </c>
       <c r="E39">
-        <v>1.403412719434937E-05</v>
+        <v>4.316961559022297E-05</v>
       </c>
       <c r="F39">
-        <v>2.079454641750844E-05</v>
+        <v>6.396497358085297E-05</v>
       </c>
       <c r="G39">
-        <v>1.669302420728759E-05</v>
+        <v>5.134850412051578E-05</v>
       </c>
       <c r="H39">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I39">
-        <v>0.000682654358517674</v>
+        <v>0.00209987595452775</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.0003977301193948249</v>
+        <v>0.001223435994640355</v>
       </c>
       <c r="C40">
-        <v>0.0001052</v>
+        <v>0.0003236000000000001</v>
       </c>
       <c r="D40">
-        <v>1.258194198639534E-05</v>
+        <v>3.870262763115521E-05</v>
       </c>
       <c r="E40">
-        <v>7.017063597174684E-06</v>
+        <v>2.158480779511149E-05</v>
       </c>
       <c r="F40">
-        <v>4.158909283501688E-05</v>
+        <v>0.0001279299471617059</v>
       </c>
       <c r="G40">
-        <v>1.054296265723426E-05</v>
+        <v>3.243063418137839E-05</v>
       </c>
       <c r="H40">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I40">
-        <v>0.0005763398633325076</v>
+        <v>0.001772847716486687</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.0002574265496696566</v>
+        <v>0.0007918558124819476</v>
       </c>
       <c r="C41">
-        <v>0.0001578</v>
+        <v>0.0004854</v>
       </c>
       <c r="D41">
-        <v>4.193980662131778E-06</v>
+        <v>1.290087587705174E-05</v>
       </c>
       <c r="F41">
-        <v>3.00365670475122E-05</v>
+        <v>9.239385072789873E-05</v>
       </c>
       <c r="G41">
-        <v>1.757160442872377E-05</v>
+        <v>5.4051056968964E-05</v>
       </c>
       <c r="I41">
-        <v>0.0004670287018080243</v>
+        <v>0.001436601596055862</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.000165924221588025</v>
+        <v>0.0005103904762916817</v>
       </c>
       <c r="C42">
-        <v>0.0001052</v>
+        <v>0.0003236000000000001</v>
       </c>
       <c r="D42">
-        <v>1.397993554043927E-05</v>
+        <v>4.300291959017249E-05</v>
       </c>
       <c r="F42">
-        <v>2.079454641750844E-05</v>
+        <v>6.396497358085297E-05</v>
       </c>
       <c r="G42">
-        <v>2.19645055359047E-05</v>
+        <v>6.756382121120497E-05</v>
       </c>
       <c r="I42">
-        <v>0.0003278632090818775</v>
+        <v>0.001008522190673912</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.0001866647492865282</v>
+        <v>0.0005741892858281422</v>
       </c>
       <c r="C43">
-        <v>9.205000000000001E-05</v>
+        <v>0.00028315</v>
       </c>
       <c r="D43">
-        <v>1.258194198639534E-05</v>
+        <v>3.870262763115521E-05</v>
       </c>
       <c r="E43">
-        <v>5.613650877739748E-06</v>
+        <v>1.726784623608918E-05</v>
       </c>
       <c r="F43">
-        <v>2.541555673251032E-05</v>
+        <v>7.817941215437583E-05</v>
       </c>
       <c r="G43">
-        <v>2.108592531446853E-05</v>
+        <v>6.486126836275678E-05</v>
       </c>
       <c r="I43">
-        <v>0.0003434118241976422</v>
+        <v>0.001056350440212519</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.0003330684742171386</v>
+        <v>0.001024533823732567</v>
       </c>
       <c r="C44">
-        <v>5.917500000000001E-05</v>
+        <v>0.000182025</v>
       </c>
       <c r="D44">
-        <v>2.795987108087854E-05</v>
+        <v>8.600583918034498E-05</v>
       </c>
       <c r="E44">
-        <v>2.806825438869874E-06</v>
+        <v>8.63392311804459E-06</v>
       </c>
       <c r="F44">
-        <v>5.198636604377111E-05</v>
+        <v>0.0001599124339521324</v>
       </c>
       <c r="G44">
-        <v>2.723598686452183E-05</v>
+        <v>8.37791383018942E-05</v>
       </c>
       <c r="I44">
-        <v>0.00050223252364518</v>
+        <v>0.001544890158284982</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.0008015603939950921</v>
+        <v>0.002465636345026727</v>
       </c>
       <c r="C45">
-        <v>4.602500000000001E-05</v>
+        <v>0.000141575</v>
       </c>
       <c r="D45">
-        <v>6.011372282388882E-05</v>
+        <v>0.0001849125542377417</v>
       </c>
       <c r="E45">
-        <v>2.526142894982887E-05</v>
+        <v>7.770530806240134E-05</v>
       </c>
       <c r="F45">
-        <v>9.242020630003752E-05</v>
+        <v>0.0002842887714704577</v>
       </c>
       <c r="G45">
-        <v>3.953610996462848E-05</v>
+        <v>0.000121614878180169</v>
       </c>
       <c r="H45">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I45">
-        <v>0.001067434886326268</v>
+        <v>0.003283478414592968</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.001523818770319436</v>
+        <v>0.004687336065355224</v>
       </c>
       <c r="C46">
-        <v>6.575E-05</v>
+        <v>0.0002022500000000001</v>
       </c>
       <c r="D46">
-        <v>0.0001286154069720412</v>
+        <v>0.0003956268602295868</v>
       </c>
       <c r="E46">
-        <v>6.736381053287698E-05</v>
+        <v>0.0002072141548330702</v>
       </c>
       <c r="F46">
-        <v>0.0001582696032888142</v>
+        <v>0.0004868445211431585</v>
       </c>
       <c r="G46">
-        <v>6.852925727202272E-05</v>
+        <v>0.0002107991221789596</v>
       </c>
       <c r="H46">
-        <v>9.232755740237603E-06</v>
+        <v>2.840037792339247E-05</v>
       </c>
       <c r="I46">
-        <v>0.002021579604125429</v>
+        <v>0.006218471101663392</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.002453482423628812</v>
+        <v>0.007547023881048325</v>
       </c>
       <c r="C47">
-        <v>7.232500000000001E-05</v>
+        <v>0.000222475</v>
       </c>
       <c r="D47">
-        <v>0.0001006555358911627</v>
+        <v>0.0003096210210492417</v>
       </c>
       <c r="E47">
-        <v>6.666210417315951E-05</v>
+        <v>0.0002050556740535591</v>
       </c>
       <c r="F47">
-        <v>0.000184840412600075</v>
+        <v>0.0005685775429409153</v>
       </c>
       <c r="G47">
-        <v>8.697944192218267E-05</v>
+        <v>0.0002675527319963717</v>
       </c>
       <c r="H47">
-        <v>8.393414309306913E-06</v>
+        <v>2.581852538490225E-05</v>
       </c>
       <c r="I47">
-        <v>0.002973338332524699</v>
+        <v>0.009146124376473315</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.00301103660940622</v>
+        <v>0.009262085996234345</v>
       </c>
       <c r="C48">
-        <v>0.00014465</v>
+        <v>0.00044495</v>
       </c>
       <c r="D48">
-        <v>0.0001467893231746122</v>
+        <v>0.000451530655696811</v>
       </c>
       <c r="E48">
-        <v>4.069896886361318E-05</v>
+        <v>0.0001251918852116466</v>
       </c>
       <c r="F48">
-        <v>0.0002264295054350919</v>
+        <v>0.0006965074901026212</v>
       </c>
       <c r="G48">
-        <v>0.0001063082067937788</v>
+        <v>0.0003270088946622321</v>
       </c>
       <c r="H48">
-        <v>1.846551148047521E-05</v>
+        <v>5.680075584678494E-05</v>
       </c>
       <c r="I48">
-        <v>0.003694378125153791</v>
+        <v>0.01136407567775444</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.002189955718753715</v>
+        <v>0.006736403712820354</v>
       </c>
       <c r="C49">
-        <v>0.000256425</v>
+        <v>0.0007887750000000001</v>
       </c>
       <c r="D49">
-        <v>0.0002055050524444572</v>
+        <v>0.0006321429179755356</v>
       </c>
       <c r="E49">
-        <v>4.069896886361318E-05</v>
+        <v>0.0001251918852116466</v>
       </c>
       <c r="F49">
-        <v>0.0002541555673251031</v>
+        <v>0.0007817941215437585</v>
       </c>
       <c r="G49">
-        <v>0.0001414514156512263</v>
+        <v>0.0004351110086001601</v>
       </c>
       <c r="H49">
-        <v>2.601958435885143E-05</v>
+        <v>8.003742869319695E-05</v>
       </c>
       <c r="I49">
-        <v>0.003114211307396966</v>
+        <v>0.009579456074844653</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.164447187750163</v>
+        <v>0.6768913949329923</v>
       </c>
       <c r="C2">
-        <v>0.05125823999999997</v>
+        <v>0.01603008000000001</v>
       </c>
       <c r="D2">
-        <v>0.2506231474933111</v>
+        <v>0.07837781992065231</v>
       </c>
       <c r="E2">
-        <v>0.1888949299461988</v>
+        <v>0.05907344533546144</v>
       </c>
       <c r="F2">
-        <v>0.2564254844566772</v>
+        <v>0.08019239501549988</v>
       </c>
       <c r="G2">
-        <v>0.9870998796908445</v>
+        <v>0.3086974901876191</v>
       </c>
       <c r="H2">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I2">
-        <v>3.992379573137074</v>
+        <v>1.248543920894536</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.254746501524822</v>
+        <v>0.7051308589441032</v>
       </c>
       <c r="C3">
-        <v>0.06290783999999998</v>
+        <v>0.01967328</v>
       </c>
       <c r="D3">
-        <v>0.2407301285133119</v>
+        <v>0.07528395860799493</v>
       </c>
       <c r="E3">
-        <v>0.2117912850911924</v>
+        <v>0.06623386295188098</v>
       </c>
       <c r="F3">
-        <v>0.2389185236704787</v>
+        <v>0.07471741222327692</v>
       </c>
       <c r="G3">
-        <v>0.8753527234994286</v>
+        <v>0.2737506045060017</v>
       </c>
       <c r="H3">
-        <v>0.07202361830759982</v>
+        <v>0.02252407346331615</v>
       </c>
       <c r="I3">
-        <v>3.956470620606833</v>
+        <v>1.237314050696574</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.387459129345153</v>
+        <v>0.7466343136270996</v>
       </c>
       <c r="C4">
-        <v>0.06057791999999998</v>
+        <v>0.01894464</v>
       </c>
       <c r="D4">
-        <v>0.2440278015066448</v>
+        <v>0.0763152457122141</v>
       </c>
       <c r="E4">
-        <v>0.1946190187324472</v>
+        <v>0.06086354973956631</v>
       </c>
       <c r="F4">
-        <v>0.2347992387796085</v>
+        <v>0.07342918097804813</v>
       </c>
       <c r="G4">
-        <v>0.8318954960916553</v>
+        <v>0.2601601489631503</v>
       </c>
       <c r="H4">
-        <v>0.1224401511229198</v>
+        <v>0.03829092488763743</v>
       </c>
       <c r="I4">
-        <v>4.075818755578428</v>
+        <v>1.274638003907716</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.364200215191074</v>
+        <v>0.7393605122909047</v>
       </c>
       <c r="C5">
-        <v>0.05475312000000001</v>
+        <v>0.01712304</v>
       </c>
       <c r="D5">
-        <v>0.2044557255866488</v>
+        <v>0.06393980046158475</v>
       </c>
       <c r="E5">
-        <v>0.2117912850911924</v>
+        <v>0.06623386295188098</v>
       </c>
       <c r="F5">
-        <v>0.2677535179065711</v>
+        <v>0.08373503093987938</v>
       </c>
       <c r="G5">
-        <v>0.5711521316450168</v>
+        <v>0.1786174157060436</v>
       </c>
       <c r="H5">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I5">
-        <v>3.767736699220383</v>
+        <v>1.178290957852604</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.53248529995294</v>
+        <v>0.7919886043116112</v>
       </c>
       <c r="C6">
-        <v>0.05358816000000001</v>
+        <v>0.01675872</v>
       </c>
       <c r="D6">
-        <v>0.2835998774266411</v>
+        <v>0.08869069096284346</v>
       </c>
       <c r="E6">
-        <v>0.217515373877441</v>
+        <v>0.06802396735598587</v>
       </c>
       <c r="F6">
-        <v>0.2471570934522192</v>
+        <v>0.07729387471373488</v>
       </c>
       <c r="G6">
-        <v>0.6891074631804011</v>
+        <v>0.2155057950366397</v>
       </c>
       <c r="H6">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I6">
-        <v>4.117083971689523</v>
+        <v>1.287542947883126</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.652884384985819</v>
+        <v>0.8296412229930921</v>
       </c>
       <c r="C7">
-        <v>0.05591807999999998</v>
+        <v>0.01748735999999999</v>
       </c>
       <c r="D7">
-        <v>0.2704091854533095</v>
+        <v>0.08456554254596695</v>
       </c>
       <c r="E7">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F7">
-        <v>0.2399483448931962</v>
+        <v>0.07503947003458421</v>
       </c>
       <c r="G7">
-        <v>0.5897766576769196</v>
+        <v>0.1844418966529799</v>
       </c>
       <c r="H7">
-        <v>0.1080354274613998</v>
+        <v>0.03378611019497421</v>
       </c>
       <c r="I7">
-        <v>4.123039276775588</v>
+        <v>1.289405360969373</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.015449811505283</v>
+        <v>0.9430269497043714</v>
       </c>
       <c r="C8">
-        <v>0.04193856</v>
+        <v>0.01311552</v>
       </c>
       <c r="D8">
-        <v>0.2901952234133076</v>
+        <v>0.09075326517128153</v>
       </c>
       <c r="E8">
-        <v>0.3033767056711678</v>
+        <v>0.09487553341755922</v>
       </c>
       <c r="F8">
-        <v>0.2296501326660204</v>
+        <v>0.07181889192151196</v>
       </c>
       <c r="G8">
-        <v>0.3476578192621843</v>
+        <v>0.1087236443428093</v>
       </c>
       <c r="H8">
-        <v>0.1368448747844398</v>
+        <v>0.04279573958030068</v>
       </c>
       <c r="I8">
-        <v>4.365113127302402</v>
+        <v>1.365109544137834</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.295924952775058</v>
+        <v>1.03074043640555</v>
       </c>
       <c r="C9">
-        <v>0.03378384</v>
+        <v>0.01056528</v>
       </c>
       <c r="D9">
-        <v>0.2506231474933111</v>
+        <v>0.07837781992065231</v>
       </c>
       <c r="E9">
-        <v>0.4293066589686336</v>
+        <v>0.1342578303078668</v>
       </c>
       <c r="F9">
-        <v>0.1668310380802479</v>
+        <v>0.05217336543177102</v>
       </c>
       <c r="G9">
-        <v>0.266951539790606</v>
+        <v>0.08348422690608565</v>
       </c>
       <c r="H9">
-        <v>0.04321417098455992</v>
+        <v>0.01351444407798968</v>
       </c>
       <c r="I9">
-        <v>4.486635348092415</v>
+        <v>1.403113403049915</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.347915466766529</v>
+        <v>1.046999521745279</v>
       </c>
       <c r="C10">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D10">
-        <v>0.1978603795999823</v>
+        <v>0.06187722625314657</v>
       </c>
       <c r="E10">
-        <v>0.4579271028998757</v>
+        <v>0.1432083523283913</v>
       </c>
       <c r="F10">
-        <v>0.08959444637642953</v>
+        <v>0.02801902958372887</v>
       </c>
       <c r="G10">
-        <v>0.1427880329112542</v>
+        <v>0.0446543539265109</v>
       </c>
       <c r="H10">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I10">
-        <v>4.297301154046352</v>
+        <v>1.343902585876052</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.161710844908507</v>
+        <v>0.6760356535993224</v>
       </c>
       <c r="C11">
-        <v>0.06174288000000003</v>
+        <v>0.01930896</v>
       </c>
       <c r="D11">
-        <v>0.1187162277599896</v>
+        <v>0.03712633575188793</v>
       </c>
       <c r="E11">
-        <v>0.3777898598923976</v>
+        <v>0.1181468906709229</v>
       </c>
       <c r="F11">
-        <v>0.04119284890870323</v>
+        <v>0.01288231245228914</v>
       </c>
       <c r="G11">
-        <v>0.1055389808474488</v>
+        <v>0.03300539203263853</v>
       </c>
       <c r="H11">
-        <v>0.02880944732303995</v>
+        <v>0.009009629385326462</v>
       </c>
       <c r="I11">
-        <v>2.895501089640087</v>
+        <v>0.9055151738923873</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.862081303747137</v>
+        <v>0.5823319775624539</v>
       </c>
       <c r="C12">
-        <v>0.06873264</v>
+        <v>0.02149488</v>
       </c>
       <c r="D12">
-        <v>0.09893018979999113</v>
+        <v>0.03093861312657329</v>
       </c>
       <c r="E12">
-        <v>0.3262730608161616</v>
+        <v>0.1020359510339788</v>
       </c>
       <c r="F12">
-        <v>0.0494314186904439</v>
+        <v>0.01545877494274697</v>
       </c>
       <c r="G12">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H12">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I12">
-        <v>2.520178328705527</v>
+        <v>0.788139823439429</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.417425591977983</v>
+        <v>0.4432740108410745</v>
       </c>
       <c r="C13">
-        <v>0.03844368000000001</v>
+        <v>0.01202256</v>
       </c>
       <c r="D13">
-        <v>0.08573949782665907</v>
+        <v>0.02681346470969686</v>
       </c>
       <c r="E13">
-        <v>0.2633080841674287</v>
+        <v>0.08234480258882504</v>
       </c>
       <c r="F13">
-        <v>0.03398410034968013</v>
+        <v>0.01062790777313854</v>
       </c>
       <c r="G13">
-        <v>0.06828992878364336</v>
+        <v>0.02135643013876611</v>
       </c>
       <c r="I13">
-        <v>1.907190883105394</v>
+        <v>0.596439176051501</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.035705765566923</v>
+        <v>0.3238980947941057</v>
       </c>
       <c r="C14">
-        <v>0.04077359999999999</v>
+        <v>0.0127512</v>
       </c>
       <c r="D14">
-        <v>0.06925113285999387</v>
+        <v>0.02165702918860128</v>
       </c>
       <c r="E14">
-        <v>0.1316540420837144</v>
+        <v>0.04117240129441252</v>
       </c>
       <c r="F14">
-        <v>0.03398410034968013</v>
+        <v>0.01062790777313854</v>
       </c>
       <c r="G14">
-        <v>0.0744981041276109</v>
+        <v>0.02329792378774484</v>
       </c>
       <c r="H14">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I14">
-        <v>1.393069106818682</v>
+        <v>0.4356569641843346</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.6485132534725516</v>
+        <v>0.2028106960797966</v>
       </c>
       <c r="C15">
-        <v>0.01048464</v>
+        <v>0.00327888</v>
       </c>
       <c r="D15">
-        <v>0.0296790569399974</v>
+        <v>0.009281583937971983</v>
       </c>
       <c r="E15">
-        <v>0.1202058645112174</v>
+        <v>0.03759219248620273</v>
       </c>
       <c r="F15">
-        <v>0.01853678200891645</v>
+        <v>0.005797040603530111</v>
       </c>
       <c r="G15">
-        <v>0.1055389808474488</v>
+        <v>0.03300539203263853</v>
       </c>
       <c r="H15">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I15">
-        <v>0.9401609396108918</v>
+        <v>0.2940181924864716</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.45560108313578</v>
+        <v>0.1424809320560598</v>
       </c>
       <c r="C16">
-        <v>0.02446416</v>
+        <v>0.007650720000000001</v>
       </c>
       <c r="D16">
-        <v>0.01978603795999823</v>
+        <v>0.006187722625314645</v>
       </c>
       <c r="E16">
-        <v>0.05724088786248446</v>
+        <v>0.01790104404104891</v>
       </c>
       <c r="F16">
-        <v>0.03810338524055046</v>
+        <v>0.01191613901836745</v>
       </c>
       <c r="G16">
-        <v>0.06828992878364336</v>
+        <v>0.02135643013876611</v>
       </c>
       <c r="H16">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I16">
-        <v>0.6778902066439766</v>
+        <v>0.2119978025722202</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.2941568554780564</v>
+        <v>0.09199219336952806</v>
       </c>
       <c r="C17">
-        <v>0.03611375999999999</v>
+        <v>0.01129392</v>
       </c>
       <c r="D17">
-        <v>0.006595345986666078</v>
+        <v>0.002062574208438219</v>
       </c>
       <c r="F17">
-        <v>0.02780517301337468</v>
+        <v>0.008695560905295167</v>
       </c>
       <c r="G17">
-        <v>0.1117471561914164</v>
+        <v>0.03494688568161722</v>
       </c>
       <c r="I17">
-        <v>0.4764182906695135</v>
+        <v>0.1489911341648787</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1901758274951154</v>
+        <v>0.05947402269006699</v>
       </c>
       <c r="C18">
-        <v>0.02446416</v>
+        <v>0.007650720000000001</v>
       </c>
       <c r="D18">
-        <v>0.02308371095333128</v>
+        <v>0.007219009729533764</v>
       </c>
       <c r="F18">
-        <v>0.01853678200891645</v>
+        <v>0.005797040603530111</v>
       </c>
       <c r="G18">
-        <v>0.1427880329112542</v>
+        <v>0.0446543539265109</v>
       </c>
       <c r="I18">
-        <v>0.3990485133686174</v>
+        <v>0.1247951469496418</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2134347416491943</v>
+        <v>0.06674782402626218</v>
       </c>
       <c r="C19">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D19">
-        <v>0.01978603795999823</v>
+        <v>0.006187722625314645</v>
       </c>
       <c r="E19">
-        <v>0.0457927102899876</v>
+        <v>0.01432083523283913</v>
       </c>
       <c r="F19">
-        <v>0.02368588812250434</v>
+        <v>0.007407329660066256</v>
       </c>
       <c r="G19">
-        <v>0.1365798575672867</v>
+        <v>0.04271286027753222</v>
       </c>
       <c r="I19">
-        <v>0.4602485155889712</v>
+        <v>0.1439343318220144</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.3817198264110588</v>
+        <v>0.119375916046969</v>
       </c>
       <c r="C20">
-        <v>0.01397952</v>
+        <v>0.004371839999999998</v>
       </c>
       <c r="D20">
-        <v>0.04616742190666255</v>
+        <v>0.01443801945906753</v>
       </c>
       <c r="E20">
-        <v>0.0228963551449938</v>
+        <v>0.007160417616419567</v>
       </c>
       <c r="F20">
-        <v>0.04737177624500867</v>
+        <v>0.01481465932013251</v>
       </c>
       <c r="G20">
-        <v>0.1738289096310921</v>
+        <v>0.05436182217140466</v>
       </c>
       <c r="I20">
-        <v>0.6859638093388158</v>
+        <v>0.2145226746139933</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.9180430233757011</v>
+        <v>0.2871012174462944</v>
       </c>
       <c r="C21">
-        <v>0.01048464</v>
+        <v>0.00327888</v>
       </c>
       <c r="D21">
-        <v>0.09893018979999113</v>
+        <v>0.03093861312657329</v>
       </c>
       <c r="E21">
-        <v>0.2117912850911924</v>
+        <v>0.06623386295188098</v>
       </c>
       <c r="F21">
-        <v>0.0844453402628416</v>
+        <v>0.02640874052719273</v>
       </c>
       <c r="G21">
-        <v>0.2545351891026705</v>
+        <v>0.07960123960812815</v>
       </c>
       <c r="H21">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I21">
-        <v>1.599836753124677</v>
+        <v>0.5003197756990644</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.744418561555915</v>
+        <v>0.5455351002146426</v>
       </c>
       <c r="C22">
-        <v>0.01514447999999999</v>
+        <v>0.004736160000000001</v>
       </c>
       <c r="D22">
-        <v>0.2110510715733145</v>
+        <v>0.066002374670023</v>
       </c>
       <c r="E22">
-        <v>0.5666847898385964</v>
+        <v>0.1772203360063844</v>
       </c>
       <c r="F22">
-        <v>0.1452047924031789</v>
+        <v>0.0454101513943192</v>
       </c>
       <c r="G22">
-        <v>0.4469886247656656</v>
+        <v>0.1397875427264689</v>
       </c>
       <c r="H22">
-        <v>0.07202361830759982</v>
+        <v>0.02252407346331615</v>
       </c>
       <c r="I22">
-        <v>3.20151593844427</v>
+        <v>1.001215738475154</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.807487755539401</v>
+        <v>0.8779906083454488</v>
       </c>
       <c r="C23">
-        <v>0.01630944</v>
+        <v>0.005100480000000003</v>
       </c>
       <c r="D23">
-        <v>0.1648836496666521</v>
+        <v>0.05156435521095545</v>
       </c>
       <c r="E23">
-        <v>0.5609607010523477</v>
+        <v>0.1754302316022793</v>
       </c>
       <c r="F23">
-        <v>0.1688906805256832</v>
+        <v>0.05281748105438547</v>
       </c>
       <c r="G23">
-        <v>0.5649439563010499</v>
+        <v>0.176675922057065</v>
       </c>
       <c r="H23">
-        <v>0.06482125647683989</v>
+        <v>0.02027166611698453</v>
       </c>
       <c r="I23">
-        <v>4.348297439561975</v>
+        <v>1.359850744387119</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.44642380906616</v>
+        <v>1.0778062097574</v>
       </c>
       <c r="C24">
-        <v>0.03378384</v>
+        <v>0.01056528</v>
       </c>
       <c r="D24">
-        <v>0.2407301285133119</v>
+        <v>0.07528395860799493</v>
       </c>
       <c r="E24">
-        <v>0.3434453271749069</v>
+        <v>0.1074062642462934</v>
       </c>
       <c r="F24">
-        <v>0.2069940657662336</v>
+        <v>0.06473362007275285</v>
       </c>
       <c r="G24">
-        <v>0.6891074631804011</v>
+        <v>0.2155057950366397</v>
       </c>
       <c r="H24">
-        <v>0.1440472366151996</v>
+        <v>0.04504814692663231</v>
       </c>
       <c r="I24">
-        <v>5.104531870316213</v>
+        <v>1.596349274647713</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.506490042957203</v>
+        <v>0.7838590616417461</v>
       </c>
       <c r="C25">
-        <v>0.05941296000000001</v>
+        <v>0.01858032</v>
       </c>
       <c r="D25">
-        <v>0.3363626453199702</v>
+        <v>0.1051912846303491</v>
       </c>
       <c r="E25">
-        <v>0.3434453271749069</v>
+        <v>0.1074062642462934</v>
       </c>
       <c r="F25">
-        <v>0.2327395963341731</v>
+        <v>0.07278506535543365</v>
       </c>
       <c r="G25">
-        <v>0.9188099509072012</v>
+        <v>0.2873410600488532</v>
       </c>
       <c r="H25">
-        <v>0.2016661312612796</v>
+        <v>0.06306740569728522</v>
       </c>
       <c r="I25">
-        <v>4.598926653954734</v>
+        <v>1.438230461619961</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.120665702283661</v>
+        <v>0.6631995335942727</v>
       </c>
       <c r="C26">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D26">
-        <v>0.3594463562733015</v>
+        <v>0.1124102943598829</v>
       </c>
       <c r="E26">
-        <v>0.1831708411599504</v>
+        <v>0.05728334093135654</v>
       </c>
       <c r="F26">
-        <v>0.250246557120372</v>
+        <v>0.0782600481476565</v>
       </c>
       <c r="G26">
-        <v>1.074014334506391</v>
+        <v>0.3358784012733212</v>
       </c>
       <c r="H26">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I26">
-        <v>4.127985496974316</v>
+        <v>1.290952201155133</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.209596844637491</v>
+        <v>0.6910111269385484</v>
       </c>
       <c r="C27">
-        <v>0.04892831999999999</v>
+        <v>0.01530144</v>
       </c>
       <c r="D27">
-        <v>0.3462556642999692</v>
+        <v>0.1082851459430064</v>
       </c>
       <c r="E27">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F27">
-        <v>0.2327395963341731</v>
+        <v>0.07278506535543365</v>
       </c>
       <c r="G27">
-        <v>0.9560590029710073</v>
+        <v>0.2989900219427256</v>
       </c>
       <c r="H27">
-        <v>0.07922598013835987</v>
+        <v>0.02477648080964776</v>
       </c>
       <c r="I27">
-        <v>4.078872604685944</v>
+        <v>1.275593039537138</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.339573129616166</v>
+        <v>0.7316588402878735</v>
       </c>
       <c r="C28">
-        <v>0.04659840000000001</v>
+        <v>0.0145728</v>
       </c>
       <c r="D28">
-        <v>0.3528510102866355</v>
+        <v>0.1103477201514446</v>
       </c>
       <c r="E28">
-        <v>0.1888949299461988</v>
+        <v>0.05907344533546144</v>
       </c>
       <c r="F28">
-        <v>0.2286203114433027</v>
+        <v>0.07149683411020469</v>
       </c>
       <c r="G28">
-        <v>0.906393600219267</v>
+        <v>0.2834580727508955</v>
       </c>
       <c r="H28">
-        <v>0.1368448747844398</v>
+        <v>0.04279573958030068</v>
       </c>
       <c r="I28">
-        <v>4.199776256296009</v>
+        <v>1.31340345221618</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.31631421546209</v>
+        <v>0.7243850389516799</v>
       </c>
       <c r="C29">
-        <v>0.04193856</v>
+        <v>0.01311552</v>
       </c>
       <c r="D29">
-        <v>0.2934928964066407</v>
+        <v>0.09178455227550075</v>
       </c>
       <c r="E29">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F29">
-        <v>0.2605447693475481</v>
+        <v>0.0814806262607288</v>
       </c>
       <c r="G29">
-        <v>0.6208175343967574</v>
+        <v>0.1941493648978736</v>
       </c>
       <c r="H29">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I29">
-        <v>3.84000823754862</v>
+        <v>1.200892563782202</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.481862957382297</v>
+        <v>0.7761573896387162</v>
       </c>
       <c r="C30">
-        <v>0.04077359999999999</v>
+        <v>0.0127512</v>
       </c>
       <c r="D30">
-        <v>0.4089114511732975</v>
+        <v>0.1278796009231695</v>
       </c>
       <c r="E30">
-        <v>0.2117912850911924</v>
+        <v>0.06623386295188098</v>
       </c>
       <c r="F30">
-        <v>0.2409781661159139</v>
+        <v>0.07536152784589147</v>
       </c>
       <c r="G30">
-        <v>0.7511892166200765</v>
+        <v>0.234920731526427</v>
       </c>
       <c r="H30">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I30">
-        <v>4.236339742013418</v>
+        <v>1.324838015734728</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.599525699573519</v>
+        <v>0.8129542669865271</v>
       </c>
       <c r="C31">
-        <v>0.04310352000000001</v>
+        <v>0.01347984</v>
       </c>
       <c r="D31">
-        <v>0.3891254132132987</v>
+        <v>0.1216918782978548</v>
       </c>
       <c r="E31">
-        <v>0.2003431075186956</v>
+        <v>0.0626536541436712</v>
       </c>
       <c r="F31">
-        <v>0.2337694175568907</v>
+        <v>0.07310712316674085</v>
       </c>
       <c r="G31">
-        <v>0.6456502357726277</v>
+        <v>0.2019153394937884</v>
       </c>
       <c r="H31">
-        <v>0.1152377892921598</v>
+        <v>0.03603851754130585</v>
       </c>
       <c r="I31">
-        <v>4.226755182927191</v>
+        <v>1.321840619629888</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.955250268988846</v>
+        <v>0.9242006403636307</v>
       </c>
       <c r="C32">
-        <v>0.03261888</v>
+        <v>0.01020096000000001</v>
       </c>
       <c r="D32">
-        <v>0.418804470153296</v>
+        <v>0.130973462235827</v>
       </c>
       <c r="E32">
-        <v>0.2919285280986708</v>
+        <v>0.09129532460934946</v>
       </c>
       <c r="F32">
-        <v>0.2234712053297149</v>
+        <v>0.06988654505366856</v>
       </c>
       <c r="G32">
-        <v>0.3786986959820226</v>
+        <v>0.1184311125877028</v>
       </c>
       <c r="H32">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I32">
-        <v>4.45202164699851</v>
+        <v>1.392288599123142</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.230252724575303</v>
+        <v>1.010202644397469</v>
       </c>
       <c r="C33">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D33">
-        <v>0.3594463562733015</v>
+        <v>0.1124102943598829</v>
       </c>
       <c r="E33">
-        <v>0.4178584813961368</v>
+        <v>0.1306776214996571</v>
       </c>
       <c r="F33">
-        <v>0.1627117531893777</v>
+        <v>0.05088513418654208</v>
       </c>
       <c r="G33">
-        <v>0.2917842411664762</v>
+        <v>0.09125020150200062</v>
       </c>
       <c r="H33">
-        <v>0.05041653281531991</v>
+        <v>0.01576685142432131</v>
       </c>
       <c r="I33">
-        <v>4.538099209415915</v>
+        <v>1.419207787369873</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.280875067145947</v>
+        <v>1.026033859070364</v>
       </c>
       <c r="C34">
-        <v>0.03028895999999999</v>
+        <v>0.009472320000000001</v>
       </c>
       <c r="D34">
-        <v>0.2835998774266411</v>
+        <v>0.08869069096284346</v>
       </c>
       <c r="E34">
-        <v>0.4464789253273789</v>
+        <v>0.1396281435201815</v>
       </c>
       <c r="F34">
-        <v>0.08753480393099432</v>
+        <v>0.02737491396111442</v>
       </c>
       <c r="G34">
-        <v>0.1552043835991893</v>
+        <v>0.04853734122446839</v>
       </c>
       <c r="H34">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I34">
-        <v>4.305589102922431</v>
+        <v>1.346494490777967</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.117929359442006</v>
+        <v>0.6623437922606017</v>
       </c>
       <c r="C35">
-        <v>0.04776335999999998</v>
+        <v>0.01493712</v>
       </c>
       <c r="D35">
-        <v>0.1714789956533181</v>
+        <v>0.05362692941939372</v>
       </c>
       <c r="E35">
-        <v>0.3663416823199008</v>
+        <v>0.1145666818627131</v>
       </c>
       <c r="F35">
-        <v>0.04016302768598561</v>
+        <v>0.01256025464098191</v>
       </c>
       <c r="G35">
-        <v>0.117955331535384</v>
+        <v>0.03688837933059601</v>
       </c>
       <c r="H35">
-        <v>0.02880944732303995</v>
+        <v>0.009009629385326462</v>
       </c>
       <c r="I35">
-        <v>2.890441203959634</v>
+        <v>0.9039327868996129</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.825140675384777</v>
+        <v>0.5707794695579089</v>
       </c>
       <c r="C36">
-        <v>0.0524232</v>
+        <v>0.01639439999999999</v>
       </c>
       <c r="D36">
-        <v>0.1417999387133205</v>
+        <v>0.04434534548142173</v>
       </c>
       <c r="E36">
-        <v>0.3148248832436645</v>
+        <v>0.09845574222576903</v>
       </c>
       <c r="F36">
-        <v>0.04840159746772628</v>
+        <v>0.01513671713143973</v>
       </c>
       <c r="G36">
-        <v>0.09933080550348125</v>
+        <v>0.03106389838365978</v>
       </c>
       <c r="H36">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I36">
-        <v>2.503528185805249</v>
+        <v>0.7829327948191941</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.38869399214059</v>
+        <v>0.4342887268375398</v>
       </c>
       <c r="C37">
-        <v>0.02912399999999999</v>
+        <v>0.009108</v>
       </c>
       <c r="D37">
-        <v>0.1220139007533224</v>
+        <v>0.03815762285610705</v>
       </c>
       <c r="E37">
-        <v>0.2575839953811802</v>
+        <v>0.08055469818472009</v>
       </c>
       <c r="F37">
-        <v>0.03295427912696255</v>
+        <v>0.01030584996183131</v>
       </c>
       <c r="G37">
-        <v>0.0744981041276109</v>
+        <v>0.02329792378774484</v>
       </c>
       <c r="I37">
-        <v>1.904868271529666</v>
+        <v>0.595712821627943</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.0151831942545</v>
+        <v>0.3174800347915807</v>
       </c>
       <c r="C38">
-        <v>0.03145391999999999</v>
+        <v>0.009836640000000002</v>
       </c>
       <c r="D38">
-        <v>0.09893018979999113</v>
+        <v>0.03093861312657329</v>
       </c>
       <c r="E38">
-        <v>0.1259299532974658</v>
+        <v>0.0393822968903076</v>
       </c>
       <c r="F38">
-        <v>0.03295427912696255</v>
+        <v>0.01030584996183131</v>
       </c>
       <c r="G38">
-        <v>0.08070627947157846</v>
+        <v>0.02523941743672355</v>
       </c>
       <c r="H38">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I38">
-        <v>1.392360177781258</v>
+        <v>0.4354352595533481</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.6348315392642699</v>
+        <v>0.1985319894114466</v>
       </c>
       <c r="C39">
-        <v>0.008154719999999999</v>
+        <v>0.002550240000000001</v>
       </c>
       <c r="D39">
-        <v>0.04286974891332954</v>
+        <v>0.01340673235484843</v>
       </c>
       <c r="E39">
-        <v>0.1144817757249689</v>
+        <v>0.03580208808209782</v>
       </c>
       <c r="F39">
-        <v>0.01853678200891645</v>
+        <v>0.005797040603530111</v>
       </c>
       <c r="G39">
-        <v>0.117955331535384</v>
+        <v>0.03688837933059601</v>
       </c>
       <c r="H39">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I39">
-        <v>0.9440322592776287</v>
+        <v>0.2952288771288506</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.4460238831899831</v>
+        <v>0.1394858373882146</v>
       </c>
       <c r="C40">
-        <v>0.01863936</v>
+        <v>0.005829120000000002</v>
       </c>
       <c r="D40">
-        <v>0.0296790569399974</v>
+        <v>0.009281583937971983</v>
       </c>
       <c r="E40">
-        <v>0.05724088786248446</v>
+        <v>0.01790104404104891</v>
       </c>
       <c r="F40">
-        <v>0.03707356401783291</v>
+        <v>0.01159408120706022</v>
       </c>
       <c r="G40">
-        <v>0.0744981041276109</v>
+        <v>0.02329792378774484</v>
       </c>
       <c r="H40">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I40">
-        <v>0.6775595797994288</v>
+        <v>0.2118944050547038</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.2886841697947432</v>
+        <v>0.090280710702188</v>
       </c>
       <c r="C41">
-        <v>0.02795903999999999</v>
+        <v>0.008743679999999997</v>
       </c>
       <c r="D41">
-        <v>0.009893018979999115</v>
+        <v>0.003093861312657323</v>
       </c>
       <c r="F41">
-        <v>0.02677535179065709</v>
+        <v>0.008373503093987943</v>
       </c>
       <c r="G41">
-        <v>0.1241635068793516</v>
+        <v>0.03882987297957469</v>
       </c>
       <c r="I41">
-        <v>0.477475087444751</v>
+        <v>0.149321628088408</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1860713132326309</v>
+        <v>0.05819041068956201</v>
       </c>
       <c r="C42">
-        <v>0.01863936</v>
+        <v>0.005829120000000002</v>
       </c>
       <c r="D42">
-        <v>0.0329767299333304</v>
+        <v>0.01031287104219108</v>
       </c>
       <c r="F42">
-        <v>0.01853678200891645</v>
+        <v>0.005797040603530111</v>
       </c>
       <c r="G42">
-        <v>0.1552043835991893</v>
+        <v>0.04853734122446839</v>
       </c>
       <c r="I42">
-        <v>0.4114285687740671</v>
+        <v>0.1286667835597516</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2093302273867097</v>
+        <v>0.06546421202575724</v>
       </c>
       <c r="C43">
-        <v>0.01630944</v>
+        <v>0.005100480000000003</v>
       </c>
       <c r="D43">
-        <v>0.0296790569399974</v>
+        <v>0.009281583937971983</v>
       </c>
       <c r="E43">
-        <v>0.0457927102899876</v>
+        <v>0.01432083523283913</v>
       </c>
       <c r="F43">
-        <v>0.02265606689978678</v>
+        <v>0.007085271848759028</v>
       </c>
       <c r="G43">
-        <v>0.1489962082552218</v>
+        <v>0.04659584757548968</v>
       </c>
       <c r="I43">
-        <v>0.4727637097717033</v>
+        <v>0.1478482306208171</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.3735107978860898</v>
+        <v>0.1168086920459588</v>
       </c>
       <c r="C44">
-        <v>0.01048464</v>
+        <v>0.00327888</v>
       </c>
       <c r="D44">
-        <v>0.06595345986666079</v>
+        <v>0.02062574208438216</v>
       </c>
       <c r="E44">
-        <v>0.0228963551449938</v>
+        <v>0.007160417616419567</v>
       </c>
       <c r="F44">
-        <v>0.04634195502229112</v>
+        <v>0.01449260150882528</v>
       </c>
       <c r="G44">
-        <v>0.1924534356629949</v>
+        <v>0.06018630311834083</v>
       </c>
       <c r="I44">
-        <v>0.7116406435830305</v>
+        <v>0.2225526363739266</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.8988886234841071</v>
+        <v>0.2811110281106044</v>
       </c>
       <c r="C45">
-        <v>0.008154719999999999</v>
+        <v>0.002550240000000001</v>
       </c>
       <c r="D45">
-        <v>0.1417999387133205</v>
+        <v>0.04434534548142173</v>
       </c>
       <c r="E45">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F45">
-        <v>0.08238569781740647</v>
+        <v>0.02576462490457828</v>
       </c>
       <c r="G45">
-        <v>0.2793678904785412</v>
+        <v>0.08736721420404311</v>
       </c>
       <c r="H45">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I45">
-        <v>1.638271152290599</v>
+        <v>0.5123394332874185</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.708846104614382</v>
+        <v>0.5344104628769328</v>
       </c>
       <c r="C46">
-        <v>0.0116496</v>
+        <v>0.003643200000000001</v>
       </c>
       <c r="D46">
-        <v>0.3033859153866394</v>
+        <v>0.09487841358815792</v>
       </c>
       <c r="E46">
-        <v>0.549512523479851</v>
+        <v>0.1718500227940696</v>
       </c>
       <c r="F46">
-        <v>0.1410855075123087</v>
+        <v>0.04412192014909028</v>
       </c>
       <c r="G46">
-        <v>0.4842376768294713</v>
+        <v>0.1514365046203414</v>
       </c>
       <c r="H46">
-        <v>0.07922598013835987</v>
+        <v>0.02477648080964776</v>
       </c>
       <c r="I46">
-        <v>3.277943307961012</v>
+        <v>1.02511700483824</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.751392727285448</v>
+        <v>0.8604479110052133</v>
       </c>
       <c r="C47">
-        <v>0.01281455999999999</v>
+        <v>0.004007520000000002</v>
       </c>
       <c r="D47">
-        <v>0.2374324555199792</v>
+        <v>0.07425267150377586</v>
       </c>
       <c r="E47">
-        <v>0.5437884346936028</v>
+        <v>0.1700599183899646</v>
       </c>
       <c r="F47">
-        <v>0.1647713956348129</v>
+        <v>0.05152924980915657</v>
       </c>
       <c r="G47">
-        <v>0.6146093590527905</v>
+        <v>0.1922078712488949</v>
       </c>
       <c r="H47">
-        <v>0.07202361830759982</v>
+        <v>0.02252407346331615</v>
       </c>
       <c r="I47">
-        <v>4.396832550494233</v>
+        <v>1.375029215420321</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.376647066603919</v>
+        <v>1.055984805748815</v>
       </c>
       <c r="C48">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D48">
-        <v>0.3462556642999692</v>
+        <v>0.1082851459430064</v>
       </c>
       <c r="E48">
-        <v>0.3319971496024097</v>
+        <v>0.1038260554380837</v>
       </c>
       <c r="F48">
-        <v>0.2018449596526458</v>
+        <v>0.06312333101621677</v>
       </c>
       <c r="G48">
-        <v>0.7511892166200765</v>
+        <v>0.234920731526427</v>
       </c>
       <c r="H48">
-        <v>0.1584519602767197</v>
+        <v>0.04955296161929552</v>
       </c>
       <c r="I48">
-        <v>5.192015137055741</v>
+        <v>1.623708071291844</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.455867700386563</v>
+        <v>0.7680278469688497</v>
       </c>
       <c r="C49">
-        <v>0.04543344000000001</v>
+        <v>0.01420848</v>
       </c>
       <c r="D49">
-        <v>0.4847579300199564</v>
+        <v>0.1515992043202089</v>
       </c>
       <c r="E49">
-        <v>0.3319971496024097</v>
+        <v>0.1038260554380837</v>
       </c>
       <c r="F49">
-        <v>0.2265606689978676</v>
+        <v>0.07085271848759023</v>
       </c>
       <c r="G49">
-        <v>0.99951623037878</v>
+        <v>0.3125804774855768</v>
       </c>
       <c r="H49">
-        <v>0.2232732167535596</v>
+        <v>0.06982462773628008</v>
       </c>
       <c r="I49">
-        <v>4.767406336139136</v>
+        <v>1.49091941043659</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.6768913949329923</v>
+        <v>2.164447187750163</v>
       </c>
       <c r="C2">
-        <v>0.01603008000000001</v>
+        <v>0.05125823999999997</v>
       </c>
       <c r="D2">
-        <v>0.07837781992065231</v>
+        <v>0.2506231474933111</v>
       </c>
       <c r="E2">
-        <v>0.05907344533546144</v>
+        <v>0.1888949299461988</v>
       </c>
       <c r="F2">
-        <v>0.08019239501549988</v>
+        <v>0.2564254844566772</v>
       </c>
       <c r="G2">
-        <v>0.3086974901876191</v>
+        <v>0.9870998796908445</v>
       </c>
       <c r="H2">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I2">
-        <v>1.248543920894536</v>
+        <v>3.992379573137074</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.7051308589441032</v>
+        <v>2.254746501524822</v>
       </c>
       <c r="C3">
-        <v>0.01967328</v>
+        <v>0.06290783999999998</v>
       </c>
       <c r="D3">
-        <v>0.07528395860799493</v>
+        <v>0.2407301285133119</v>
       </c>
       <c r="E3">
-        <v>0.06623386295188098</v>
+        <v>0.2117912850911924</v>
       </c>
       <c r="F3">
-        <v>0.07471741222327692</v>
+        <v>0.2389185236704787</v>
       </c>
       <c r="G3">
-        <v>0.2737506045060017</v>
+        <v>0.8753527234994286</v>
       </c>
       <c r="H3">
-        <v>0.02252407346331615</v>
+        <v>0.07202361830759982</v>
       </c>
       <c r="I3">
-        <v>1.237314050696574</v>
+        <v>3.956470620606833</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.7466343136270996</v>
+        <v>2.387459129345153</v>
       </c>
       <c r="C4">
-        <v>0.01894464</v>
+        <v>0.06057791999999998</v>
       </c>
       <c r="D4">
-        <v>0.0763152457122141</v>
+        <v>0.2440278015066448</v>
       </c>
       <c r="E4">
-        <v>0.06086354973956631</v>
+        <v>0.1946190187324472</v>
       </c>
       <c r="F4">
-        <v>0.07342918097804813</v>
+        <v>0.2347992387796085</v>
       </c>
       <c r="G4">
-        <v>0.2601601489631503</v>
+        <v>0.8318954960916553</v>
       </c>
       <c r="H4">
-        <v>0.03829092488763743</v>
+        <v>0.1224401511229198</v>
       </c>
       <c r="I4">
-        <v>1.274638003907716</v>
+        <v>4.075818755578428</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.7393605122909047</v>
+        <v>2.364200215191074</v>
       </c>
       <c r="C5">
-        <v>0.01712304</v>
+        <v>0.05475312000000001</v>
       </c>
       <c r="D5">
-        <v>0.06393980046158475</v>
+        <v>0.2044557255866488</v>
       </c>
       <c r="E5">
-        <v>0.06623386295188098</v>
+        <v>0.2117912850911924</v>
       </c>
       <c r="F5">
-        <v>0.08373503093987938</v>
+        <v>0.2677535179065711</v>
       </c>
       <c r="G5">
-        <v>0.1786174157060436</v>
+        <v>0.5711521316450168</v>
       </c>
       <c r="H5">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I5">
-        <v>1.178290957852604</v>
+        <v>3.767736699220383</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.7919886043116112</v>
+        <v>2.53248529995294</v>
       </c>
       <c r="C6">
-        <v>0.01675872</v>
+        <v>0.05358816000000001</v>
       </c>
       <c r="D6">
-        <v>0.08869069096284346</v>
+        <v>0.2835998774266411</v>
       </c>
       <c r="E6">
-        <v>0.06802396735598587</v>
+        <v>0.217515373877441</v>
       </c>
       <c r="F6">
-        <v>0.07729387471373488</v>
+        <v>0.2471570934522192</v>
       </c>
       <c r="G6">
-        <v>0.2155057950366397</v>
+        <v>0.6891074631804011</v>
       </c>
       <c r="H6">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I6">
-        <v>1.287542947883126</v>
+        <v>4.117083971689523</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.8296412229930921</v>
+        <v>2.652884384985819</v>
       </c>
       <c r="C7">
-        <v>0.01748735999999999</v>
+        <v>0.05591807999999998</v>
       </c>
       <c r="D7">
-        <v>0.08456554254596695</v>
+        <v>0.2704091854533095</v>
       </c>
       <c r="E7">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F7">
-        <v>0.07503947003458421</v>
+        <v>0.2399483448931962</v>
       </c>
       <c r="G7">
-        <v>0.1844418966529799</v>
+        <v>0.5897766576769196</v>
       </c>
       <c r="H7">
-        <v>0.03378611019497421</v>
+        <v>0.1080354274613998</v>
       </c>
       <c r="I7">
-        <v>1.289405360969373</v>
+        <v>4.123039276775588</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.9430269497043714</v>
+        <v>3.015449811505283</v>
       </c>
       <c r="C8">
-        <v>0.01311552</v>
+        <v>0.04193856</v>
       </c>
       <c r="D8">
-        <v>0.09075326517128153</v>
+        <v>0.2901952234133076</v>
       </c>
       <c r="E8">
-        <v>0.09487553341755922</v>
+        <v>0.3033767056711678</v>
       </c>
       <c r="F8">
-        <v>0.07181889192151196</v>
+        <v>0.2296501326660204</v>
       </c>
       <c r="G8">
-        <v>0.1087236443428093</v>
+        <v>0.3476578192621843</v>
       </c>
       <c r="H8">
-        <v>0.04279573958030068</v>
+        <v>0.1368448747844398</v>
       </c>
       <c r="I8">
-        <v>1.365109544137834</v>
+        <v>4.365113127302402</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.03074043640555</v>
+        <v>3.295924952775058</v>
       </c>
       <c r="C9">
-        <v>0.01056528</v>
+        <v>0.03378384</v>
       </c>
       <c r="D9">
-        <v>0.07837781992065231</v>
+        <v>0.2506231474933111</v>
       </c>
       <c r="E9">
-        <v>0.1342578303078668</v>
+        <v>0.4293066589686336</v>
       </c>
       <c r="F9">
-        <v>0.05217336543177102</v>
+        <v>0.1668310380802479</v>
       </c>
       <c r="G9">
-        <v>0.08348422690608565</v>
+        <v>0.266951539790606</v>
       </c>
       <c r="H9">
-        <v>0.01351444407798968</v>
+        <v>0.04321417098455992</v>
       </c>
       <c r="I9">
-        <v>1.403113403049915</v>
+        <v>4.486635348092415</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.046999521745279</v>
+        <v>3.347915466766529</v>
       </c>
       <c r="C10">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D10">
-        <v>0.06187722625314657</v>
+        <v>0.1978603795999823</v>
       </c>
       <c r="E10">
-        <v>0.1432083523283913</v>
+        <v>0.4579271028998757</v>
       </c>
       <c r="F10">
-        <v>0.02801902958372887</v>
+        <v>0.08959444637642953</v>
       </c>
       <c r="G10">
-        <v>0.0446543539265109</v>
+        <v>0.1427880329112542</v>
       </c>
       <c r="H10">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I10">
-        <v>1.343902585876052</v>
+        <v>4.297301154046352</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.6760356535993224</v>
+        <v>2.161710844908507</v>
       </c>
       <c r="C11">
-        <v>0.01930896</v>
+        <v>0.06174288000000003</v>
       </c>
       <c r="D11">
-        <v>0.03712633575188793</v>
+        <v>0.1187162277599896</v>
       </c>
       <c r="E11">
-        <v>0.1181468906709229</v>
+        <v>0.3777898598923976</v>
       </c>
       <c r="F11">
-        <v>0.01288231245228914</v>
+        <v>0.04119284890870323</v>
       </c>
       <c r="G11">
-        <v>0.03300539203263853</v>
+        <v>0.1055389808474488</v>
       </c>
       <c r="H11">
-        <v>0.009009629385326462</v>
+        <v>0.02880944732303995</v>
       </c>
       <c r="I11">
-        <v>0.9055151738923873</v>
+        <v>2.895501089640087</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.5823319775624539</v>
+        <v>1.862081303747137</v>
       </c>
       <c r="C12">
-        <v>0.02149488</v>
+        <v>0.06873264</v>
       </c>
       <c r="D12">
-        <v>0.03093861312657329</v>
+        <v>0.09893018979999113</v>
       </c>
       <c r="E12">
-        <v>0.1020359510339788</v>
+        <v>0.3262730608161616</v>
       </c>
       <c r="F12">
-        <v>0.01545877494274697</v>
+        <v>0.0494314186904439</v>
       </c>
       <c r="G12">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H12">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I12">
-        <v>0.788139823439429</v>
+        <v>2.520178328705527</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.4432740108410745</v>
+        <v>1.417425591977983</v>
       </c>
       <c r="C13">
-        <v>0.01202256</v>
+        <v>0.03844368000000001</v>
       </c>
       <c r="D13">
-        <v>0.02681346470969686</v>
+        <v>0.08573949782665907</v>
       </c>
       <c r="E13">
-        <v>0.08234480258882504</v>
+        <v>0.2633080841674287</v>
       </c>
       <c r="F13">
-        <v>0.01062790777313854</v>
+        <v>0.03398410034968013</v>
       </c>
       <c r="G13">
-        <v>0.02135643013876611</v>
+        <v>0.06828992878364336</v>
       </c>
       <c r="I13">
-        <v>0.596439176051501</v>
+        <v>1.907190883105394</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.3238980947941057</v>
+        <v>1.035705765566923</v>
       </c>
       <c r="C14">
-        <v>0.0127512</v>
+        <v>0.04077359999999999</v>
       </c>
       <c r="D14">
-        <v>0.02165702918860128</v>
+        <v>0.06925113285999387</v>
       </c>
       <c r="E14">
-        <v>0.04117240129441252</v>
+        <v>0.1316540420837144</v>
       </c>
       <c r="F14">
-        <v>0.01062790777313854</v>
+        <v>0.03398410034968013</v>
       </c>
       <c r="G14">
-        <v>0.02329792378774484</v>
+        <v>0.0744981041276109</v>
       </c>
       <c r="H14">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I14">
-        <v>0.4356569641843346</v>
+        <v>1.393069106818682</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.2028106960797966</v>
+        <v>0.6485132534725516</v>
       </c>
       <c r="C15">
-        <v>0.00327888</v>
+        <v>0.01048464</v>
       </c>
       <c r="D15">
-        <v>0.009281583937971983</v>
+        <v>0.0296790569399974</v>
       </c>
       <c r="E15">
-        <v>0.03759219248620273</v>
+        <v>0.1202058645112174</v>
       </c>
       <c r="F15">
-        <v>0.005797040603530111</v>
+        <v>0.01853678200891645</v>
       </c>
       <c r="G15">
-        <v>0.03300539203263853</v>
+        <v>0.1055389808474488</v>
       </c>
       <c r="H15">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I15">
-        <v>0.2940181924864716</v>
+        <v>0.9401609396108918</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.1424809320560598</v>
+        <v>0.45560108313578</v>
       </c>
       <c r="C16">
-        <v>0.007650720000000001</v>
+        <v>0.02446416</v>
       </c>
       <c r="D16">
-        <v>0.006187722625314645</v>
+        <v>0.01978603795999823</v>
       </c>
       <c r="E16">
-        <v>0.01790104404104891</v>
+        <v>0.05724088786248446</v>
       </c>
       <c r="F16">
-        <v>0.01191613901836745</v>
+        <v>0.03810338524055046</v>
       </c>
       <c r="G16">
-        <v>0.02135643013876611</v>
+        <v>0.06828992878364336</v>
       </c>
       <c r="H16">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I16">
-        <v>0.2119978025722202</v>
+        <v>0.6778902066439766</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.09199219336952806</v>
+        <v>0.2941568554780564</v>
       </c>
       <c r="C17">
-        <v>0.01129392</v>
+        <v>0.03611375999999999</v>
       </c>
       <c r="D17">
-        <v>0.002062574208438219</v>
+        <v>0.006595345986666078</v>
       </c>
       <c r="F17">
-        <v>0.008695560905295167</v>
+        <v>0.02780517301337468</v>
       </c>
       <c r="G17">
-        <v>0.03494688568161722</v>
+        <v>0.1117471561914164</v>
       </c>
       <c r="I17">
-        <v>0.1489911341648787</v>
+        <v>0.4764182906695135</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.05947402269006699</v>
+        <v>0.1901758274951154</v>
       </c>
       <c r="C18">
-        <v>0.007650720000000001</v>
+        <v>0.02446416</v>
       </c>
       <c r="D18">
-        <v>0.007219009729533764</v>
+        <v>0.02308371095333128</v>
       </c>
       <c r="F18">
-        <v>0.005797040603530111</v>
+        <v>0.01853678200891645</v>
       </c>
       <c r="G18">
-        <v>0.0446543539265109</v>
+        <v>0.1427880329112542</v>
       </c>
       <c r="I18">
-        <v>0.1247951469496418</v>
+        <v>0.3990485133686174</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.06674782402626218</v>
+        <v>0.2134347416491943</v>
       </c>
       <c r="C19">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D19">
-        <v>0.006187722625314645</v>
+        <v>0.01978603795999823</v>
       </c>
       <c r="E19">
-        <v>0.01432083523283913</v>
+        <v>0.0457927102899876</v>
       </c>
       <c r="F19">
-        <v>0.007407329660066256</v>
+        <v>0.02368588812250434</v>
       </c>
       <c r="G19">
-        <v>0.04271286027753222</v>
+        <v>0.1365798575672867</v>
       </c>
       <c r="I19">
-        <v>0.1439343318220144</v>
+        <v>0.4602485155889712</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.119375916046969</v>
+        <v>0.3817198264110588</v>
       </c>
       <c r="C20">
-        <v>0.004371839999999998</v>
+        <v>0.01397952</v>
       </c>
       <c r="D20">
-        <v>0.01443801945906753</v>
+        <v>0.04616742190666255</v>
       </c>
       <c r="E20">
-        <v>0.007160417616419567</v>
+        <v>0.0228963551449938</v>
       </c>
       <c r="F20">
-        <v>0.01481465932013251</v>
+        <v>0.04737177624500867</v>
       </c>
       <c r="G20">
-        <v>0.05436182217140466</v>
+        <v>0.1738289096310921</v>
       </c>
       <c r="I20">
-        <v>0.2145226746139933</v>
+        <v>0.6859638093388158</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.2871012174462944</v>
+        <v>0.9180430233757011</v>
       </c>
       <c r="C21">
-        <v>0.00327888</v>
+        <v>0.01048464</v>
       </c>
       <c r="D21">
-        <v>0.03093861312657329</v>
+        <v>0.09893018979999113</v>
       </c>
       <c r="E21">
-        <v>0.06623386295188098</v>
+        <v>0.2117912850911924</v>
       </c>
       <c r="F21">
-        <v>0.02640874052719273</v>
+        <v>0.0844453402628416</v>
       </c>
       <c r="G21">
-        <v>0.07960123960812815</v>
+        <v>0.2545351891026705</v>
       </c>
       <c r="H21">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I21">
-        <v>0.5003197756990644</v>
+        <v>1.599836753124677</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.5455351002146426</v>
+        <v>1.744418561555915</v>
       </c>
       <c r="C22">
-        <v>0.004736160000000001</v>
+        <v>0.01514447999999999</v>
       </c>
       <c r="D22">
-        <v>0.066002374670023</v>
+        <v>0.2110510715733145</v>
       </c>
       <c r="E22">
-        <v>0.1772203360063844</v>
+        <v>0.5666847898385964</v>
       </c>
       <c r="F22">
-        <v>0.0454101513943192</v>
+        <v>0.1452047924031789</v>
       </c>
       <c r="G22">
-        <v>0.1397875427264689</v>
+        <v>0.4469886247656656</v>
       </c>
       <c r="H22">
-        <v>0.02252407346331615</v>
+        <v>0.07202361830759982</v>
       </c>
       <c r="I22">
-        <v>1.001215738475154</v>
+        <v>3.20151593844427</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.8779906083454488</v>
+        <v>2.807487755539401</v>
       </c>
       <c r="C23">
-        <v>0.005100480000000003</v>
+        <v>0.01630944</v>
       </c>
       <c r="D23">
-        <v>0.05156435521095545</v>
+        <v>0.1648836496666521</v>
       </c>
       <c r="E23">
-        <v>0.1754302316022793</v>
+        <v>0.5609607010523477</v>
       </c>
       <c r="F23">
-        <v>0.05281748105438547</v>
+        <v>0.1688906805256832</v>
       </c>
       <c r="G23">
-        <v>0.176675922057065</v>
+        <v>0.5649439563010499</v>
       </c>
       <c r="H23">
-        <v>0.02027166611698453</v>
+        <v>0.06482125647683989</v>
       </c>
       <c r="I23">
-        <v>1.359850744387119</v>
+        <v>4.348297439561975</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.0778062097574</v>
+        <v>3.44642380906616</v>
       </c>
       <c r="C24">
-        <v>0.01056528</v>
+        <v>0.03378384</v>
       </c>
       <c r="D24">
-        <v>0.07528395860799493</v>
+        <v>0.2407301285133119</v>
       </c>
       <c r="E24">
-        <v>0.1074062642462934</v>
+        <v>0.3434453271749069</v>
       </c>
       <c r="F24">
-        <v>0.06473362007275285</v>
+        <v>0.2069940657662336</v>
       </c>
       <c r="G24">
-        <v>0.2155057950366397</v>
+        <v>0.6891074631804011</v>
       </c>
       <c r="H24">
-        <v>0.04504814692663231</v>
+        <v>0.1440472366151996</v>
       </c>
       <c r="I24">
-        <v>1.596349274647713</v>
+        <v>5.104531870316213</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.7838590616417461</v>
+        <v>2.506490042957203</v>
       </c>
       <c r="C25">
-        <v>0.01858032</v>
+        <v>0.05941296000000001</v>
       </c>
       <c r="D25">
-        <v>0.1051912846303491</v>
+        <v>0.3363626453199702</v>
       </c>
       <c r="E25">
-        <v>0.1074062642462934</v>
+        <v>0.3434453271749069</v>
       </c>
       <c r="F25">
-        <v>0.07278506535543365</v>
+        <v>0.2327395963341731</v>
       </c>
       <c r="G25">
-        <v>0.2873410600488532</v>
+        <v>0.9188099509072012</v>
       </c>
       <c r="H25">
-        <v>0.06306740569728522</v>
+        <v>0.2016661312612796</v>
       </c>
       <c r="I25">
-        <v>1.438230461619961</v>
+        <v>4.598926653954734</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.6631995335942727</v>
+        <v>2.120665702283661</v>
       </c>
       <c r="C26">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D26">
-        <v>0.1124102943598829</v>
+        <v>0.3594463562733015</v>
       </c>
       <c r="E26">
-        <v>0.05728334093135654</v>
+        <v>0.1831708411599504</v>
       </c>
       <c r="F26">
-        <v>0.0782600481476565</v>
+        <v>0.250246557120372</v>
       </c>
       <c r="G26">
-        <v>0.3358784012733212</v>
+        <v>1.074014334506391</v>
       </c>
       <c r="H26">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I26">
-        <v>1.290952201155133</v>
+        <v>4.127985496974316</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.6910111269385484</v>
+        <v>2.209596844637491</v>
       </c>
       <c r="C27">
-        <v>0.01530144</v>
+        <v>0.04892831999999999</v>
       </c>
       <c r="D27">
-        <v>0.1082851459430064</v>
+        <v>0.3462556642999692</v>
       </c>
       <c r="E27">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F27">
-        <v>0.07278506535543365</v>
+        <v>0.2327395963341731</v>
       </c>
       <c r="G27">
-        <v>0.2989900219427256</v>
+        <v>0.9560590029710073</v>
       </c>
       <c r="H27">
-        <v>0.02477648080964776</v>
+        <v>0.07922598013835987</v>
       </c>
       <c r="I27">
-        <v>1.275593039537138</v>
+        <v>4.078872604685944</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.7316588402878735</v>
+        <v>2.339573129616166</v>
       </c>
       <c r="C28">
-        <v>0.0145728</v>
+        <v>0.04659840000000001</v>
       </c>
       <c r="D28">
-        <v>0.1103477201514446</v>
+        <v>0.3528510102866355</v>
       </c>
       <c r="E28">
-        <v>0.05907344533546144</v>
+        <v>0.1888949299461988</v>
       </c>
       <c r="F28">
-        <v>0.07149683411020469</v>
+        <v>0.2286203114433027</v>
       </c>
       <c r="G28">
-        <v>0.2834580727508955</v>
+        <v>0.906393600219267</v>
       </c>
       <c r="H28">
-        <v>0.04279573958030068</v>
+        <v>0.1368448747844398</v>
       </c>
       <c r="I28">
-        <v>1.31340345221618</v>
+        <v>4.199776256296009</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.7243850389516799</v>
+        <v>2.31631421546209</v>
       </c>
       <c r="C29">
-        <v>0.01311552</v>
+        <v>0.04193856</v>
       </c>
       <c r="D29">
-        <v>0.09178455227550075</v>
+        <v>0.2934928964066407</v>
       </c>
       <c r="E29">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F29">
-        <v>0.0814806262607288</v>
+        <v>0.2605447693475481</v>
       </c>
       <c r="G29">
-        <v>0.1941493648978736</v>
+        <v>0.6208175343967574</v>
       </c>
       <c r="H29">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I29">
-        <v>1.200892563782202</v>
+        <v>3.84000823754862</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.7761573896387162</v>
+        <v>2.481862957382297</v>
       </c>
       <c r="C30">
-        <v>0.0127512</v>
+        <v>0.04077359999999999</v>
       </c>
       <c r="D30">
-        <v>0.1278796009231695</v>
+        <v>0.4089114511732975</v>
       </c>
       <c r="E30">
-        <v>0.06623386295188098</v>
+        <v>0.2117912850911924</v>
       </c>
       <c r="F30">
-        <v>0.07536152784589147</v>
+        <v>0.2409781661159139</v>
       </c>
       <c r="G30">
-        <v>0.234920731526427</v>
+        <v>0.7511892166200765</v>
       </c>
       <c r="H30">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I30">
-        <v>1.324838015734728</v>
+        <v>4.236339742013418</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.8129542669865271</v>
+        <v>2.599525699573519</v>
       </c>
       <c r="C31">
-        <v>0.01347984</v>
+        <v>0.04310352000000001</v>
       </c>
       <c r="D31">
-        <v>0.1216918782978548</v>
+        <v>0.3891254132132987</v>
       </c>
       <c r="E31">
-        <v>0.0626536541436712</v>
+        <v>0.2003431075186956</v>
       </c>
       <c r="F31">
-        <v>0.07310712316674085</v>
+        <v>0.2337694175568907</v>
       </c>
       <c r="G31">
-        <v>0.2019153394937884</v>
+        <v>0.6456502357726277</v>
       </c>
       <c r="H31">
-        <v>0.03603851754130585</v>
+        <v>0.1152377892921598</v>
       </c>
       <c r="I31">
-        <v>1.321840619629888</v>
+        <v>4.226755182927191</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.9242006403636307</v>
+        <v>2.955250268988846</v>
       </c>
       <c r="C32">
-        <v>0.01020096000000001</v>
+        <v>0.03261888</v>
       </c>
       <c r="D32">
-        <v>0.130973462235827</v>
+        <v>0.418804470153296</v>
       </c>
       <c r="E32">
-        <v>0.09129532460934946</v>
+        <v>0.2919285280986708</v>
       </c>
       <c r="F32">
-        <v>0.06988654505366856</v>
+        <v>0.2234712053297149</v>
       </c>
       <c r="G32">
-        <v>0.1184311125877028</v>
+        <v>0.3786986959820226</v>
       </c>
       <c r="H32">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I32">
-        <v>1.392288599123142</v>
+        <v>4.45202164699851</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.010202644397469</v>
+        <v>3.230252724575303</v>
       </c>
       <c r="C33">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D33">
-        <v>0.1124102943598829</v>
+        <v>0.3594463562733015</v>
       </c>
       <c r="E33">
-        <v>0.1306776214996571</v>
+        <v>0.4178584813961368</v>
       </c>
       <c r="F33">
-        <v>0.05088513418654208</v>
+        <v>0.1627117531893777</v>
       </c>
       <c r="G33">
-        <v>0.09125020150200062</v>
+        <v>0.2917842411664762</v>
       </c>
       <c r="H33">
-        <v>0.01576685142432131</v>
+        <v>0.05041653281531991</v>
       </c>
       <c r="I33">
-        <v>1.419207787369873</v>
+        <v>4.538099209415915</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.026033859070364</v>
+        <v>3.280875067145947</v>
       </c>
       <c r="C34">
-        <v>0.009472320000000001</v>
+        <v>0.03028895999999999</v>
       </c>
       <c r="D34">
-        <v>0.08869069096284346</v>
+        <v>0.2835998774266411</v>
       </c>
       <c r="E34">
-        <v>0.1396281435201815</v>
+        <v>0.4464789253273789</v>
       </c>
       <c r="F34">
-        <v>0.02737491396111442</v>
+        <v>0.08753480393099432</v>
       </c>
       <c r="G34">
-        <v>0.04853734122446839</v>
+        <v>0.1552043835991893</v>
       </c>
       <c r="H34">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I34">
-        <v>1.346494490777967</v>
+        <v>4.305589102922431</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.6623437922606017</v>
+        <v>2.117929359442006</v>
       </c>
       <c r="C35">
-        <v>0.01493712</v>
+        <v>0.04776335999999998</v>
       </c>
       <c r="D35">
-        <v>0.05362692941939372</v>
+        <v>0.1714789956533181</v>
       </c>
       <c r="E35">
-        <v>0.1145666818627131</v>
+        <v>0.3663416823199008</v>
       </c>
       <c r="F35">
-        <v>0.01256025464098191</v>
+        <v>0.04016302768598561</v>
       </c>
       <c r="G35">
-        <v>0.03688837933059601</v>
+        <v>0.117955331535384</v>
       </c>
       <c r="H35">
-        <v>0.009009629385326462</v>
+        <v>0.02880944732303995</v>
       </c>
       <c r="I35">
-        <v>0.9039327868996129</v>
+        <v>2.890441203959634</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.5707794695579089</v>
+        <v>1.825140675384777</v>
       </c>
       <c r="C36">
-        <v>0.01639439999999999</v>
+        <v>0.0524232</v>
       </c>
       <c r="D36">
-        <v>0.04434534548142173</v>
+        <v>0.1417999387133205</v>
       </c>
       <c r="E36">
-        <v>0.09845574222576903</v>
+        <v>0.3148248832436645</v>
       </c>
       <c r="F36">
-        <v>0.01513671713143973</v>
+        <v>0.04840159746772628</v>
       </c>
       <c r="G36">
-        <v>0.03106389838365978</v>
+        <v>0.09933080550348125</v>
       </c>
       <c r="H36">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I36">
-        <v>0.7829327948191941</v>
+        <v>2.503528185805249</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.4342887268375398</v>
+        <v>1.38869399214059</v>
       </c>
       <c r="C37">
-        <v>0.009108</v>
+        <v>0.02912399999999999</v>
       </c>
       <c r="D37">
-        <v>0.03815762285610705</v>
+        <v>0.1220139007533224</v>
       </c>
       <c r="E37">
-        <v>0.08055469818472009</v>
+        <v>0.2575839953811802</v>
       </c>
       <c r="F37">
-        <v>0.01030584996183131</v>
+        <v>0.03295427912696255</v>
       </c>
       <c r="G37">
-        <v>0.02329792378774484</v>
+        <v>0.0744981041276109</v>
       </c>
       <c r="I37">
-        <v>0.595712821627943</v>
+        <v>1.904868271529666</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.3174800347915807</v>
+        <v>1.0151831942545</v>
       </c>
       <c r="C38">
-        <v>0.009836640000000002</v>
+        <v>0.03145391999999999</v>
       </c>
       <c r="D38">
-        <v>0.03093861312657329</v>
+        <v>0.09893018979999113</v>
       </c>
       <c r="E38">
-        <v>0.0393822968903076</v>
+        <v>0.1259299532974658</v>
       </c>
       <c r="F38">
-        <v>0.01030584996183131</v>
+        <v>0.03295427912696255</v>
       </c>
       <c r="G38">
-        <v>0.02523941743672355</v>
+        <v>0.08070627947157846</v>
       </c>
       <c r="H38">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I38">
-        <v>0.4354352595533481</v>
+        <v>1.392360177781258</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.1985319894114466</v>
+        <v>0.6348315392642699</v>
       </c>
       <c r="C39">
-        <v>0.002550240000000001</v>
+        <v>0.008154719999999999</v>
       </c>
       <c r="D39">
-        <v>0.01340673235484843</v>
+        <v>0.04286974891332954</v>
       </c>
       <c r="E39">
-        <v>0.03580208808209782</v>
+        <v>0.1144817757249689</v>
       </c>
       <c r="F39">
-        <v>0.005797040603530111</v>
+        <v>0.01853678200891645</v>
       </c>
       <c r="G39">
-        <v>0.03688837933059601</v>
+        <v>0.117955331535384</v>
       </c>
       <c r="H39">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I39">
-        <v>0.2952288771288506</v>
+        <v>0.9440322592776287</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.1394858373882146</v>
+        <v>0.4460238831899831</v>
       </c>
       <c r="C40">
-        <v>0.005829120000000002</v>
+        <v>0.01863936</v>
       </c>
       <c r="D40">
-        <v>0.009281583937971983</v>
+        <v>0.0296790569399974</v>
       </c>
       <c r="E40">
-        <v>0.01790104404104891</v>
+        <v>0.05724088786248446</v>
       </c>
       <c r="F40">
-        <v>0.01159408120706022</v>
+        <v>0.03707356401783291</v>
       </c>
       <c r="G40">
-        <v>0.02329792378774484</v>
+        <v>0.0744981041276109</v>
       </c>
       <c r="H40">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I40">
-        <v>0.2118944050547038</v>
+        <v>0.6775595797994288</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.090280710702188</v>
+        <v>0.2886841697947432</v>
       </c>
       <c r="C41">
-        <v>0.008743679999999997</v>
+        <v>0.02795903999999999</v>
       </c>
       <c r="D41">
-        <v>0.003093861312657323</v>
+        <v>0.009893018979999115</v>
       </c>
       <c r="F41">
-        <v>0.008373503093987943</v>
+        <v>0.02677535179065709</v>
       </c>
       <c r="G41">
-        <v>0.03882987297957469</v>
+        <v>0.1241635068793516</v>
       </c>
       <c r="I41">
-        <v>0.149321628088408</v>
+        <v>0.477475087444751</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.05819041068956201</v>
+        <v>0.1860713132326309</v>
       </c>
       <c r="C42">
-        <v>0.005829120000000002</v>
+        <v>0.01863936</v>
       </c>
       <c r="D42">
-        <v>0.01031287104219108</v>
+        <v>0.0329767299333304</v>
       </c>
       <c r="F42">
-        <v>0.005797040603530111</v>
+        <v>0.01853678200891645</v>
       </c>
       <c r="G42">
-        <v>0.04853734122446839</v>
+        <v>0.1552043835991893</v>
       </c>
       <c r="I42">
-        <v>0.1286667835597516</v>
+        <v>0.4114285687740671</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.06546421202575724</v>
+        <v>0.2093302273867097</v>
       </c>
       <c r="C43">
-        <v>0.005100480000000003</v>
+        <v>0.01630944</v>
       </c>
       <c r="D43">
-        <v>0.009281583937971983</v>
+        <v>0.0296790569399974</v>
       </c>
       <c r="E43">
-        <v>0.01432083523283913</v>
+        <v>0.0457927102899876</v>
       </c>
       <c r="F43">
-        <v>0.007085271848759028</v>
+        <v>0.02265606689978678</v>
       </c>
       <c r="G43">
-        <v>0.04659584757548968</v>
+        <v>0.1489962082552218</v>
       </c>
       <c r="I43">
-        <v>0.1478482306208171</v>
+        <v>0.4727637097717033</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.1168086920459588</v>
+        <v>0.3735107978860898</v>
       </c>
       <c r="C44">
-        <v>0.00327888</v>
+        <v>0.01048464</v>
       </c>
       <c r="D44">
-        <v>0.02062574208438216</v>
+        <v>0.06595345986666079</v>
       </c>
       <c r="E44">
-        <v>0.007160417616419567</v>
+        <v>0.0228963551449938</v>
       </c>
       <c r="F44">
-        <v>0.01449260150882528</v>
+        <v>0.04634195502229112</v>
       </c>
       <c r="G44">
-        <v>0.06018630311834083</v>
+        <v>0.1924534356629949</v>
       </c>
       <c r="I44">
-        <v>0.2225526363739266</v>
+        <v>0.7116406435830305</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.2811110281106044</v>
+        <v>0.8988886234841071</v>
       </c>
       <c r="C45">
-        <v>0.002550240000000001</v>
+        <v>0.008154719999999999</v>
       </c>
       <c r="D45">
-        <v>0.04434534548142173</v>
+        <v>0.1417999387133205</v>
       </c>
       <c r="E45">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F45">
-        <v>0.02576462490457828</v>
+        <v>0.08238569781740647</v>
       </c>
       <c r="G45">
-        <v>0.08736721420404311</v>
+        <v>0.2793678904785412</v>
       </c>
       <c r="H45">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I45">
-        <v>0.5123394332874185</v>
+        <v>1.638271152290599</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.5344104628769328</v>
+        <v>1.708846104614382</v>
       </c>
       <c r="C46">
-        <v>0.003643200000000001</v>
+        <v>0.0116496</v>
       </c>
       <c r="D46">
-        <v>0.09487841358815792</v>
+        <v>0.3033859153866394</v>
       </c>
       <c r="E46">
-        <v>0.1718500227940696</v>
+        <v>0.549512523479851</v>
       </c>
       <c r="F46">
-        <v>0.04412192014909028</v>
+        <v>0.1410855075123087</v>
       </c>
       <c r="G46">
-        <v>0.1514365046203414</v>
+        <v>0.4842376768294713</v>
       </c>
       <c r="H46">
-        <v>0.02477648080964776</v>
+        <v>0.07922598013835987</v>
       </c>
       <c r="I46">
-        <v>1.02511700483824</v>
+        <v>3.277943307961012</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.8604479110052133</v>
+        <v>2.751392727285448</v>
       </c>
       <c r="C47">
-        <v>0.004007520000000002</v>
+        <v>0.01281455999999999</v>
       </c>
       <c r="D47">
-        <v>0.07425267150377586</v>
+        <v>0.2374324555199792</v>
       </c>
       <c r="E47">
-        <v>0.1700599183899646</v>
+        <v>0.5437884346936028</v>
       </c>
       <c r="F47">
-        <v>0.05152924980915657</v>
+        <v>0.1647713956348129</v>
       </c>
       <c r="G47">
-        <v>0.1922078712488949</v>
+        <v>0.6146093590527905</v>
       </c>
       <c r="H47">
-        <v>0.02252407346331615</v>
+        <v>0.07202361830759982</v>
       </c>
       <c r="I47">
-        <v>1.375029215420321</v>
+        <v>4.396832550494233</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.055984805748815</v>
+        <v>3.376647066603919</v>
       </c>
       <c r="C48">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D48">
-        <v>0.1082851459430064</v>
+        <v>0.3462556642999692</v>
       </c>
       <c r="E48">
-        <v>0.1038260554380837</v>
+        <v>0.3319971496024097</v>
       </c>
       <c r="F48">
-        <v>0.06312333101621677</v>
+        <v>0.2018449596526458</v>
       </c>
       <c r="G48">
-        <v>0.234920731526427</v>
+        <v>0.7511892166200765</v>
       </c>
       <c r="H48">
-        <v>0.04955296161929552</v>
+        <v>0.1584519602767197</v>
       </c>
       <c r="I48">
-        <v>1.623708071291844</v>
+        <v>5.192015137055741</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.7680278469688497</v>
+        <v>2.455867700386563</v>
       </c>
       <c r="C49">
-        <v>0.01420848</v>
+        <v>0.04543344000000001</v>
       </c>
       <c r="D49">
-        <v>0.1515992043202089</v>
+        <v>0.4847579300199564</v>
       </c>
       <c r="E49">
-        <v>0.1038260554380837</v>
+        <v>0.3319971496024097</v>
       </c>
       <c r="F49">
-        <v>0.07085271848759023</v>
+        <v>0.2265606689978676</v>
       </c>
       <c r="G49">
-        <v>0.3125804774855768</v>
+        <v>0.99951623037878</v>
       </c>
       <c r="H49">
-        <v>0.06982462773628008</v>
+        <v>0.2232732167535596</v>
       </c>
       <c r="I49">
-        <v>1.49091941043659</v>
+        <v>4.767406336139136</v>
       </c>
     </row>
   </sheetData>
